--- a/docs/src/reference/data-dictionaries/S_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/S_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD246"/>
+  <dimension ref="A1:AD241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7642,12 +7642,12 @@
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr">
         <is>
-          <t>BupAvTmBk</t>
+          <t>BupCtTmBk</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Buprenorphine Provider</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="X91" t="inlineStr"/>
@@ -7710,12 +7710,12 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr">
         <is>
-          <t>BupAvTmDr</t>
+          <t>BupCtTmDr</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Buprenorphine Provider</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="X92" t="inlineStr"/>
@@ -7778,12 +7778,12 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr">
         <is>
-          <t>BupAvTmWk</t>
+          <t>BupCtTmWk</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Buprenorphine Provider</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="X93" t="inlineStr"/>
@@ -7842,16 +7842,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T94" t="inlineStr"/>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr">
         <is>
-          <t>BupCtTmBk</t>
+          <t>BupTmBk</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (biking)</t>
+          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X94" t="inlineStr"/>
@@ -7914,12 +7918,12 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr">
         <is>
-          <t>BupCtTmDr</t>
+          <t>BupTmBkP</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (driving)</t>
+          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
         </is>
       </c>
       <c r="X95" t="inlineStr"/>
@@ -7978,16 +7982,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T96" t="inlineStr"/>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr">
         <is>
-          <t>BupCtTmWk</t>
+          <t>BupTmDr</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (walking)</t>
+          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X96" t="inlineStr"/>
@@ -8050,12 +8058,12 @@
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr">
         <is>
-          <t>BupTmBkP</t>
+          <t>BupTmDrP</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
+          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X97" t="inlineStr"/>
@@ -8114,16 +8122,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T98" t="inlineStr"/>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr">
         <is>
-          <t>BupTmDrP</t>
+          <t>BupTmWk</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
+          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X98" t="inlineStr"/>
@@ -8446,12 +8458,12 @@
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr">
         <is>
-          <t>MetAvTmBk</t>
+          <t>MetCtTmBk</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Methadone Provider</t>
+          <t>Tracts with Methadone Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="X103" t="inlineStr"/>
@@ -8514,12 +8526,12 @@
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr">
         <is>
-          <t>MetAvTmDr</t>
+          <t>MetCtTmDr</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Methadone Provider</t>
+          <t>Tracts with Methadone Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="X104" t="inlineStr"/>
@@ -8582,12 +8594,12 @@
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr">
         <is>
-          <t>MetAvTmWk</t>
+          <t>MetCtTmWk</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Methadone Provide</t>
+          <t>Tracts with Methadone Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="X105" t="inlineStr"/>
@@ -8646,16 +8658,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T106" t="inlineStr"/>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr">
         <is>
-          <t>MetCtTmBk</t>
+          <t>MetTmBk</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (biking)</t>
+          <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X106" t="inlineStr"/>
@@ -8718,12 +8734,12 @@
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr">
         <is>
-          <t>MetCtTmDr</t>
+          <t>MetTmBkP</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (driving)</t>
+          <t>% Tracts With Methadone Provider (30-min bike)</t>
         </is>
       </c>
       <c r="X107" t="inlineStr"/>
@@ -8782,16 +8798,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T108" t="inlineStr"/>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr">
         <is>
-          <t>MetCtTmWk</t>
+          <t>MetTmDr</t>
         </is>
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (walking)</t>
+          <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X108" t="inlineStr"/>
@@ -8854,12 +8874,12 @@
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr">
         <is>
-          <t>MetTmBkP</t>
+          <t>MetTmDrP</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min bike)</t>
+          <t>% Tracts With Methadone Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X109" t="inlineStr"/>
@@ -8918,16 +8938,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T110" t="inlineStr"/>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr">
         <is>
-          <t>MetTmDrP</t>
+          <t>MetTmWk</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min drive)</t>
+          <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="X110" t="inlineStr"/>
@@ -9058,12 +9082,12 @@
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr">
         <is>
-          <t>NaltAvTmBk</t>
+          <t>NaltCtTmBk</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Naltrexone Provider</t>
+          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="X112" t="inlineStr"/>
@@ -9126,12 +9150,12 @@
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr">
         <is>
-          <t>NaltAvTmDr</t>
+          <t>NaltCtTmDr</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Naltrexone Provider</t>
+          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="X113" t="inlineStr"/>
@@ -9194,12 +9218,12 @@
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr">
         <is>
-          <t>NaltAvTmWk</t>
+          <t>NaltCtTmWk</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Naltrexone Provider</t>
+          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="X114" t="inlineStr"/>
@@ -9258,16 +9282,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T115" t="inlineStr"/>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr">
         <is>
-          <t>NaltCtTmBk</t>
+          <t>NaltTmBk</t>
         </is>
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
+          <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X115" t="inlineStr"/>
@@ -9330,12 +9358,12 @@
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr">
         <is>
-          <t>NaltCtTmDr</t>
+          <t>NaltTmBkP</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
+          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
         </is>
       </c>
       <c r="X116" t="inlineStr"/>
@@ -9394,16 +9422,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T117" t="inlineStr"/>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr">
         <is>
-          <t>NaltCtTmWk</t>
+          <t>NaltTmDr</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
+          <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X117" t="inlineStr"/>
@@ -9466,12 +9498,12 @@
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr">
         <is>
-          <t>NaltTmBkP</t>
+          <t>NaltTmDrP</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
+          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X118" t="inlineStr"/>
@@ -9530,16 +9562,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T119" t="inlineStr"/>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr">
         <is>
-          <t>NaltTmDrP</t>
+          <t>NaltTmWk</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
+          <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="X119" t="inlineStr"/>
@@ -10062,12 +10098,12 @@
       <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr">
         <is>
-          <t>TlBupAvTmBk</t>
+          <t>TlBupCtTmBk30</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Average biking time to nearest telehealth buprenorphine provider</t>
+          <t>Count of tracts within 30-min telehealth buprenorphine biking range</t>
         </is>
       </c>
       <c r="X127" t="inlineStr"/>
@@ -10126,12 +10162,12 @@
       <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr">
         <is>
-          <t>TlBupAvTmDr</t>
+          <t>TlBupCtTmDr30</t>
         </is>
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>Average driving time to nearest telehealth buprenorphine provider</t>
+          <t>Count of tracts within 30-min telehealth buprenorphine driving range</t>
         </is>
       </c>
       <c r="X128" t="inlineStr"/>
@@ -10190,12 +10226,12 @@
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr">
         <is>
-          <t>TlBupAvTmWk</t>
+          <t>TlBupCtTmDr60</t>
         </is>
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Average walking time to nearest telehealth buprenorphine provider</t>
+          <t>Count of tracts within 60-min telehealth buprenorphine driving range</t>
         </is>
       </c>
       <c r="X129" t="inlineStr"/>
@@ -10254,12 +10290,12 @@
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr">
         <is>
-          <t>TlBupCtTmBk30</t>
+          <t>TlBupCtTmWk30</t>
         </is>
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>Count of tracts within 30-min telehealth buprenorphine biking range</t>
+          <t>Count of tracts within 30-min telehealth buprenorphine walking range</t>
         </is>
       </c>
       <c r="X130" t="inlineStr"/>
@@ -10318,12 +10354,12 @@
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr">
         <is>
-          <t>TlBupCtTmDr30</t>
+          <t>TlBupMinDis</t>
         </is>
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>Count of tracts within 30-min telehealth buprenorphine driving range</t>
+          <t>Minimum distance to telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X131" t="inlineStr"/>
@@ -10382,12 +10418,12 @@
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>TlBupCtTmDr60</t>
+          <t>TlBupTmBk</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>Count of tracts within 60-min telehealth buprenorphine driving range</t>
+          <t>Biking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X132" t="inlineStr"/>
@@ -10446,12 +10482,12 @@
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr">
         <is>
-          <t>TlBupCtTmWk30</t>
+          <t>TlBupTmBk30P</t>
         </is>
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>Count of tracts within 30-min telehealth buprenorphine walking range</t>
+          <t>Percent of tracts within 30-min telehealth buprenorphine biking range</t>
         </is>
       </c>
       <c r="X133" t="inlineStr"/>
@@ -10510,12 +10546,12 @@
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr">
         <is>
-          <t>TlBupTmBk30P</t>
+          <t>TlBupTmDr</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>Percent of tracts within 30-min telehealth buprenorphine biking range</t>
+          <t>Driving time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X134" t="inlineStr"/>
@@ -10702,12 +10738,12 @@
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr">
         <is>
-          <t>TlBupTmWk30P</t>
+          <t>TlBupTmWk</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>Percent of tracts within 30-min telehealth buprenorphine walking range</t>
+          <t>Walking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X137" t="inlineStr"/>
@@ -10738,7 +10774,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -10752,11 +10788,7 @@
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
@@ -10770,28 +10802,28 @@
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr">
         <is>
-          <t>MhAvTmDr</t>
+          <t>TlBupTmWk30P</t>
         </is>
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Percent of tracts within 30-min telehealth buprenorphine walking range</t>
         </is>
       </c>
       <c r="X138" t="inlineStr"/>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
         </is>
       </c>
       <c r="AA138" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
         </is>
       </c>
       <c r="AB138" t="inlineStr"/>
@@ -10838,12 +10870,12 @@
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr">
         <is>
-          <t>MhCtTmDr</t>
+          <t>MhAvTmDr</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Tracts with Mental Health Provider (30-min drive)</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="X139" t="inlineStr"/>
@@ -10906,12 +10938,12 @@
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr">
         <is>
-          <t>MhTmDrP</t>
+          <t>MhCtTmDr</t>
         </is>
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>% Tracts with Mental Health Provider (30-min drive)</t>
+          <t>Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X140" t="inlineStr"/>
@@ -10942,7 +10974,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -10955,43 +10987,47 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr">
         <is>
-          <t>RxAvTmDr</t>
+          <t>MhTmDrP</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
+          <t>% Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB141" t="inlineStr"/>
@@ -11034,12 +11070,12 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr">
         <is>
-          <t>RxCtTmDr</t>
+          <t>RxAvTmDr</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>Tracts with Pharmacy (30-min drive)</t>
+          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
       <c r="X142" t="inlineStr"/>
@@ -11098,12 +11134,12 @@
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr">
         <is>
-          <t>RxTmDrP</t>
+          <t>RxCtTmDr</t>
         </is>
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>% tracts with Pharmacy (30-min drive)</t>
+          <t>Tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="X143" t="inlineStr"/>
@@ -11134,7 +11170,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -11147,47 +11183,43 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr">
         <is>
-          <t>SutpAvTmDr</t>
+          <t>RxTmDrP</t>
         </is>
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
+          <t>% tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA144" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB144" t="inlineStr"/>
@@ -11225,21 +11257,17 @@
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr">
         <is>
-          <t>SutpCtTmDr</t>
+          <t>SutpAvTmDr</t>
         </is>
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
+          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
         </is>
       </c>
       <c r="X145" t="inlineStr"/>
@@ -11293,21 +11321,17 @@
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr">
         <is>
-          <t>SutpTmDrP</t>
+          <t>SutpCtTmDr</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
+          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
         </is>
       </c>
       <c r="X146" t="inlineStr"/>
@@ -11338,7 +11362,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -11352,42 +11376,42 @@
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>HcvAvTmDr</t>
+          <t>SutpTmDrP</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>Average time drive to nearest HCV testing provider</t>
+          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
         </is>
       </c>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB147" t="inlineStr"/>
@@ -11402,7 +11426,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -11416,7 +11440,11 @@
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
@@ -11430,28 +11458,28 @@
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr">
         <is>
-          <t>HcvCtTmDr</t>
+          <t>FqhcAvTmDr</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Count of tracts within 30-min driving range</t>
+          <t>Average driving time to nearest Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr"/>
@@ -11466,7 +11494,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -11480,7 +11508,11 @@
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
@@ -11494,28 +11526,28 @@
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr">
         <is>
-          <t>HcvTmDrP</t>
+          <t>FqhcCtTmDr</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>Percent of tracts within 30-min driving range</t>
+          <t>Count of Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB149" t="inlineStr"/>
@@ -11530,7 +11562,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -11544,7 +11576,11 @@
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
@@ -11558,28 +11594,28 @@
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr">
         <is>
-          <t>HivAvTmDr</t>
+          <t>FqhcTmDrP</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>Average time drive to nearest HIV provider</t>
+          <t>% Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB150" t="inlineStr"/>
@@ -11594,7 +11630,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -11606,7 +11642,11 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -11622,28 +11662,28 @@
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr">
         <is>
-          <t>HivCtTmDr</t>
+          <t>TotTracts</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Count of tracts within 30-min driving range</t>
+          <t>Total Census Tract Count</t>
         </is>
       </c>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB151" t="inlineStr"/>
@@ -11653,12 +11693,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Spatial access to HCV Testing</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -11670,44 +11710,44 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr">
         <is>
-          <t>HivTmDrP</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Percent of tracts within 30-min driving range</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>SAMHSA 2025</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2025</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB152" t="inlineStr"/>
@@ -11717,12 +11757,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -11734,7 +11774,11 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
@@ -11743,39 +11787,39 @@
       </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr">
         <is>
-          <t>FqhcAvTmDr</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Driving Time to nearest Federally Qualified Health Center</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB153" t="inlineStr"/>
@@ -11785,12 +11829,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -11802,7 +11846,11 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
@@ -11811,39 +11859,39 @@
       </c>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr">
         <is>
-          <t>FqhcCtTmDr</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>Tracts with Federally Qualified Health Center (30-min driving)</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB154" t="inlineStr"/>
@@ -11853,12 +11901,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -11870,7 +11918,11 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
@@ -11879,39 +11931,39 @@
       </c>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr">
         <is>
-          <t>FqhcTmDrP</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>% tracts within 30-min drive of Federally Qualified Health Center</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB155" t="inlineStr"/>
@@ -11921,12 +11973,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -11944,42 +11996,46 @@
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr">
         <is>
-          <t>TotTracts</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>Total Census Tract Count</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA 2020; Tiger/Line 2018</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020; Tiger/Line 2018 Shapefiles</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB156" t="inlineStr"/>
@@ -12012,22 +12068,30 @@
         </is>
       </c>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="X157" t="inlineStr"/>
@@ -12058,7 +12122,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -12076,46 +12140,38 @@
         </is>
       </c>
       <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>ForDqP</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
       <c r="X158" t="inlineStr"/>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA158" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB158" t="inlineStr"/>
@@ -12130,7 +12186,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -12148,46 +12204,38 @@
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="X159" t="inlineStr"/>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA159" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB159" t="inlineStr"/>
@@ -12202,13 +12250,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
@@ -12238,28 +12290,28 @@
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="X160" t="inlineStr"/>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA160" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB160" t="inlineStr"/>
@@ -12274,7 +12326,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Internet Access</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -12286,52 +12338,44 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="X161" t="inlineStr"/>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>ACS 2019</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>American Community Survey 2015-2019 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB161" t="inlineStr"/>
@@ -12346,13 +12390,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
@@ -12382,28 +12430,28 @@
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="X162" t="inlineStr"/>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA162" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB162" t="inlineStr"/>
@@ -12418,13 +12466,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
@@ -12436,38 +12488,46 @@
         </is>
       </c>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="X163" t="inlineStr"/>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA163" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB163" t="inlineStr"/>
@@ -12482,13 +12542,29 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
@@ -12500,38 +12576,50 @@
         </is>
       </c>
       <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr"/>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="X164" t="inlineStr"/>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA164" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB164" t="inlineStr"/>
@@ -12546,12 +12634,24 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr">
         <is>
           <t>x</t>
@@ -12583,31 +12683,35 @@
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr"/>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="X165" t="inlineStr"/>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA165" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB165" t="inlineStr"/>
@@ -12617,12 +12721,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Internet Access</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -12633,15 +12737,27 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N166" t="inlineStr"/>
-      <c r="O166" t="inlineStr"/>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
@@ -12650,28 +12766,28 @@
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>AnyGslDt</t>
         </is>
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Any Good Samaritan Law (date)</t>
         </is>
       </c>
       <c r="X166" t="inlineStr"/>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
         </is>
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>ACS 2019</t>
+          <t>OPTIC 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5-Year Estimate</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AB166" t="inlineStr"/>
@@ -12681,73 +12797,73 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N167" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O167" t="inlineStr"/>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>AnyGslFr</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Any Good Samaritan Law (fraction of year in 2018)</t>
         </is>
       </c>
       <c r="X167" t="inlineStr"/>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
         </is>
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>OPTIC 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AA167" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AB167" t="inlineStr"/>
@@ -12757,73 +12873,81 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N168" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>AnyNalxDt</t>
         </is>
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Any Naloxone Law (date)</t>
         </is>
       </c>
       <c r="X168" t="inlineStr"/>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA168" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB168" t="inlineStr"/>
@@ -12833,89 +12957,81 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Harm Reduction Policies</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N169" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
-      <c r="U169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>AnyNalxFr</t>
         </is>
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Naloxone Law allowing distribution through a standing or order (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X169" t="inlineStr"/>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB169" t="inlineStr"/>
@@ -12925,89 +13041,61 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Harm Reduction Policies</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>ExpSsp</t>
         </is>
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Syringe Service Program (SSP) Authorization Laws</t>
         </is>
       </c>
       <c r="X170" t="inlineStr"/>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB170" t="inlineStr"/>
@@ -13062,12 +13150,12 @@
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr">
         <is>
-          <t>AnyGslDt</t>
+          <t>GslArrDt</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>Any Good Samaritan Law (date)</t>
+          <t>Good Samaritan Law Protecting Arrest (date)</t>
         </is>
       </c>
       <c r="X171" t="inlineStr"/>
@@ -13138,12 +13226,12 @@
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr">
         <is>
-          <t>AnyGslFr</t>
+          <t>GslArrFr</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Any Good Samaritan Law (fraction of year in 2018)</t>
+          <t>Good Samaritan Law Protecting Arrest (fraction of year in 2018)</t>
         </is>
       </c>
       <c r="X172" t="inlineStr"/>
@@ -13222,12 +13310,12 @@
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr">
         <is>
-          <t>AnyNalxDt</t>
+          <t>NalxPrStDt</t>
         </is>
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>Any Naloxone Law (date)</t>
+          <t>Naloxone Law allowing distribution through a standing or order (date)</t>
         </is>
       </c>
       <c r="X173" t="inlineStr"/>
@@ -13306,12 +13394,12 @@
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr">
         <is>
-          <t>AnyNalxFr</t>
+          <t>NalxPrStFr</t>
         </is>
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing distribution through a standing or order (fraction of year in 2017)</t>
+          <t>Naloxone Law in Effect (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X174" t="inlineStr"/>
@@ -13353,16 +13441,36 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M175" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="inlineStr"/>
@@ -13370,28 +13478,28 @@
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr">
         <is>
-          <t>ExpSsp</t>
+          <t>NalxPresDt</t>
         </is>
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>Syringe Service Program (SSP) Authorization Laws</t>
+          <t>Naloxone Law allowing pharmacists prescriptive authority (date)</t>
         </is>
       </c>
       <c r="X175" t="inlineStr"/>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA175" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB175" t="inlineStr"/>
@@ -13422,7 +13530,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M176" t="inlineStr">
         <is>
           <t>x</t>
@@ -13438,7 +13550,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="P176" t="inlineStr"/>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="inlineStr"/>
@@ -13446,28 +13562,28 @@
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr">
         <is>
-          <t>GslArrDt</t>
+          <t>NalxPresFr</t>
         </is>
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>Good Samaritan Law Protecting Arrest (date)</t>
+          <t>Naloxone Law allowing pharmacists prescriptive authority (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X176" t="inlineStr"/>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>OPTIC 2017, 2019, 2020, 2021</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA176" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB176" t="inlineStr"/>
@@ -13493,27 +13609,15 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr"/>
@@ -13522,28 +13626,28 @@
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr">
         <is>
-          <t>GslArrFr</t>
+          <t>NoLwRmUnc</t>
         </is>
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>Good Samaritan Law Protecting Arrest (fraction of year in 2018)</t>
+          <t>Laws removing barriers to SSPs</t>
         </is>
       </c>
       <c r="X177" t="inlineStr"/>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z177" t="inlineStr">
         <is>
-          <t>OPTIC 2017, 2019, 2020, 2021</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA177" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB177" t="inlineStr"/>
@@ -13569,36 +13673,16 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="inlineStr"/>
@@ -13606,28 +13690,28 @@
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr">
         <is>
-          <t>NalxPrStDt</t>
+          <t>NoPrphLw</t>
         </is>
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing distribution through a standing or order (date)</t>
+          <t>Drug Paraphernalia Laws</t>
         </is>
       </c>
       <c r="X178" t="inlineStr"/>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA178" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB178" t="inlineStr"/>
@@ -13653,36 +13737,16 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="inlineStr"/>
@@ -13690,28 +13754,28 @@
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr">
         <is>
-          <t>NalxPrStFr</t>
+          <t>NtPrFrDsSy</t>
         </is>
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>Naloxone Law in Effect (fraction of year in 2017)</t>
+          <t>Distribution of Syringes Laws</t>
         </is>
       </c>
       <c r="X179" t="inlineStr"/>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA179" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB179" t="inlineStr"/>
@@ -13737,36 +13801,16 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
@@ -13774,28 +13818,28 @@
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="inlineStr">
         <is>
-          <t>NalxPresDt</t>
+          <t>PrExcInj</t>
         </is>
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing pharmacists prescriptive authority (date)</t>
+          <t>Paraphernalia exludes objects used for injecting drugs</t>
         </is>
       </c>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z180" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA180" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB180" t="inlineStr"/>
@@ -13821,36 +13865,16 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
@@ -13858,28 +13882,28 @@
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr">
         <is>
-          <t>NalxPresFr</t>
+          <t>PrNtRefInj</t>
         </is>
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing pharmacists prescriptive authority (fraction of year in 2017)</t>
+          <t>Paraphernalia does not refer to objects used for injecting drugs</t>
         </is>
       </c>
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA181" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB181" t="inlineStr"/>
@@ -13894,7 +13918,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Marijuana Policies</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -13905,45 +13929,69 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M182" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr">
         <is>
-          <t>NoLwRmUnc</t>
+          <t>MdMarijLaw</t>
         </is>
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>Laws removing barriers to SSPs</t>
+          <t xml:space="preserve">Laws authorizing medical marijuana use </t>
         </is>
       </c>
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Marijuana_Laws.md</t>
         </is>
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>PDAPS 2017</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>Prescription Drug Abuse Policy System, Medical Marijuana Caregiver Rules, 2017</t>
         </is>
       </c>
       <c r="AB182" t="inlineStr"/>
@@ -13958,7 +14006,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -13969,45 +14017,69 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M183" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr">
         <is>
-          <t>NoPrphLw</t>
+          <t>AnyPdmpDt</t>
         </is>
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Drug Paraphernalia Laws</t>
+          <t>Any PDMP start date</t>
         </is>
       </c>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB183" t="inlineStr"/>
@@ -14022,7 +14094,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -14033,45 +14105,69 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M184" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr">
         <is>
-          <t>NtPrFrDsSy</t>
+          <t>AnyPdmpFr</t>
         </is>
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>Distribution of Syringes Laws</t>
+          <t>Any PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA184" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB184" t="inlineStr"/>
@@ -14086,7 +14182,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -14097,45 +14193,69 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M185" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr">
         <is>
-          <t>PrExcInj</t>
+          <t>AnyPdmphDt</t>
         </is>
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>Paraphernalia exludes objects used for injecting drugs</t>
+          <t>Any Horowitz PDMP start date</t>
         </is>
       </c>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z185" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA185" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB185" t="inlineStr"/>
@@ -14150,7 +14270,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -14161,45 +14281,69 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M186" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
       <c r="V186" t="inlineStr">
         <is>
-          <t>PrNtRefInj</t>
+          <t>AnyPdmphFr</t>
         </is>
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>Paraphernalia does not refer to objects used for injecting drugs</t>
+          <t>Any Horowitz PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z186" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA186" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB186" t="inlineStr"/>
@@ -14214,7 +14358,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Marijuana Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -14266,28 +14410,28 @@
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr">
         <is>
-          <t>MdMarijLaw</t>
+          <t>ElcPdmpDt</t>
         </is>
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laws authorizing medical marijuana use </t>
+          <t>Electronic PDMP start date</t>
         </is>
       </c>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Marijuana_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>PDAPS 2017</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA187" t="inlineStr">
         <is>
-          <t>Prescription Drug Abuse Policy System, Medical Marijuana Caregiver Rules, 2017</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB187" t="inlineStr"/>
@@ -14354,12 +14498,12 @@
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr">
         <is>
-          <t>AnyPdmpDt</t>
+          <t>ElcPdmpFr</t>
         </is>
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>Any PDMP start date</t>
+          <t>Electronic PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X188" t="inlineStr"/>
@@ -14442,12 +14586,12 @@
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr">
         <is>
-          <t>AnyPdmpFr</t>
+          <t>MsAcPdmpDt</t>
         </is>
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>Any PDMP (fraction of year in 2017)</t>
+          <t>Must-Access PDMP start date</t>
         </is>
       </c>
       <c r="X189" t="inlineStr"/>
@@ -14530,12 +14674,12 @@
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr">
         <is>
-          <t>AnyPdmphDt</t>
+          <t>MsAcPdmpFr</t>
         </is>
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Any Horowitz PDMP start date</t>
+          <t>Must-Access PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X190" t="inlineStr"/>
@@ -14618,12 +14762,12 @@
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr">
         <is>
-          <t>AnyPdmphFr</t>
+          <t>OpPdmpDt</t>
         </is>
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>Any Horowitz PDMP (fraction of year in 2017)</t>
+          <t>Operational PDMP start date</t>
         </is>
       </c>
       <c r="X191" t="inlineStr"/>
@@ -14706,12 +14850,12 @@
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr">
         <is>
-          <t>ElcPdmpDt</t>
+          <t>OpPdmpFr</t>
         </is>
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>Electronic PDMP start date</t>
+          <t>Operational PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X192" t="inlineStr"/>
@@ -14742,7 +14886,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -14753,16 +14897,8 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr">
         <is>
           <t>x</t>
@@ -14783,39 +14919,35 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Q193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr">
         <is>
-          <t>ElcPdmpFr</t>
+          <t>CrrctExp</t>
         </is>
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>Electronic PDMP (fraction of year in 2017)</t>
+          <t>Corrections expenditures</t>
         </is>
       </c>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
       <c r="Z193" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>Survey of State and Local Government Finances 2018-2022</t>
         </is>
       </c>
       <c r="AA193" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AB193" t="inlineStr"/>
@@ -14830,7 +14962,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -14841,36 +14973,16 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr">
         <is>
           <t>x</t>
@@ -14882,28 +14994,28 @@
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr">
         <is>
-          <t>MsAcPdmpDt</t>
+          <t>ExpnFedExp</t>
         </is>
       </c>
       <c r="W194" t="inlineStr">
         <is>
-          <t>Must-Access PDMP start date</t>
+          <t>Expansion Medicaid Federal Spending</t>
         </is>
       </c>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>KFF 2018, 2019</t>
         </is>
       </c>
       <c r="AA194" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Kaiser Family Foundation,  2018, 2019</t>
         </is>
       </c>
       <c r="AB194" t="inlineStr"/>
@@ -14918,7 +15030,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -14929,36 +15041,16 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr">
         <is>
           <t>x</t>
@@ -14970,28 +15062,28 @@
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr">
         <is>
-          <t>MsAcPdmpFr</t>
+          <t>ExpnSttExp</t>
         </is>
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>Must-Access PDMP (fraction of year in 2017)</t>
+          <t>Expansion Medicaid State Spending</t>
         </is>
       </c>
       <c r="X195" t="inlineStr"/>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
       <c r="Z195" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>KFF 2018, 2019</t>
         </is>
       </c>
       <c r="AA195" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Kaiser Family Foundation,  2018, 2019</t>
         </is>
       </c>
       <c r="AB195" t="inlineStr"/>
@@ -15006,7 +15098,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -15017,16 +15109,8 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr">
         <is>
           <t>x</t>
@@ -15047,39 +15131,35 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Q196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q196" t="inlineStr"/>
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr">
         <is>
-          <t>OpPdmpDt</t>
+          <t>HlthExp</t>
         </is>
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>Operational PDMP start date</t>
+          <t>Public health expenditures</t>
         </is>
       </c>
       <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
       <c r="Z196" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>Survey of State and Local Government Finances 2018-2022</t>
         </is>
       </c>
       <c r="AA196" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AB196" t="inlineStr"/>
@@ -15094,7 +15174,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -15105,11 +15185,7 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>x</t>
@@ -15120,21 +15196,9 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr">
         <is>
           <t>x</t>
@@ -15146,28 +15210,28 @@
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr">
         <is>
-          <t>OpPdmpFr</t>
+          <t>MedcdExp</t>
         </is>
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>Operational PDMP (fraction of year in 2017)</t>
+          <t>Total Medicaid Spending</t>
         </is>
       </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>KFF 2018, 2019</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Kaiser Family Foundation,  2018, 2019</t>
         </is>
       </c>
       <c r="AB197" t="inlineStr"/>
@@ -15222,12 +15286,12 @@
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="inlineStr">
         <is>
-          <t>CrrctExp</t>
+          <t>PlcFyrExp</t>
         </is>
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>Corrections expenditures</t>
+          <t>Police &amp; fire expenditures</t>
         </is>
       </c>
       <c r="X198" t="inlineStr"/>
@@ -15290,12 +15354,12 @@
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr">
         <is>
-          <t>ExpnFedExp</t>
+          <t>TradFedExp</t>
         </is>
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>Expansion Medicaid Federal Spending</t>
+          <t>Traditional Medicaid Federal Spending</t>
         </is>
       </c>
       <c r="X199" t="inlineStr"/>
@@ -15358,12 +15422,12 @@
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr">
         <is>
-          <t>ExpnSttExp</t>
+          <t>TradSttExp</t>
         </is>
       </c>
       <c r="W200" t="inlineStr">
         <is>
-          <t>Expansion Medicaid State Spending</t>
+          <t>Traditional Medicaid State Spending</t>
         </is>
       </c>
       <c r="X200" t="inlineStr"/>
@@ -15434,12 +15498,12 @@
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr">
         <is>
-          <t>HlthExp</t>
+          <t>WlfrExp</t>
         </is>
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>Public health expenditures</t>
+          <t>Public welfare expenditures</t>
         </is>
       </c>
       <c r="X201" t="inlineStr"/>
@@ -15465,12 +15529,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -15481,53 +15545,45 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q202" t="inlineStr"/>
       <c r="R202" t="inlineStr"/>
       <c r="S202" t="inlineStr"/>
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr">
         <is>
-          <t>MedcdExp</t>
+          <t>A50_74Hcv</t>
         </is>
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>Total Medicaid Spending</t>
+          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
         </is>
       </c>
       <c r="X202" t="inlineStr"/>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z202" t="inlineStr">
         <is>
-          <t>KFF 2018, 2019</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA202" t="inlineStr">
         <is>
-          <t>Kaiser Family Foundation,  2018, 2019</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB202" t="inlineStr"/>
@@ -15537,24 +15593,48 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M203" t="inlineStr">
         <is>
           <t>x</t>
@@ -15582,28 +15662,28 @@
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr">
         <is>
-          <t>PlcFyrExp</t>
+          <t>A50_74HcvD</t>
         </is>
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>Police &amp; fire expenditures</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old</t>
         </is>
       </c>
       <c r="X203" t="inlineStr"/>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z203" t="inlineStr">
         <is>
-          <t>Survey of State and Local Government Finances 2018-2022</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA203" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB203" t="inlineStr"/>
@@ -15613,65 +15693,97 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr"/>
       <c r="S204" t="inlineStr"/>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr">
         <is>
-          <t>TradFedExp</t>
+          <t>AmInHcvD</t>
         </is>
       </c>
       <c r="W204" t="inlineStr">
         <is>
-          <t>Traditional Medicaid Federal Spending</t>
+          <t>Hepatitis C Deaths - American Indian</t>
         </is>
       </c>
       <c r="X204" t="inlineStr"/>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z204" t="inlineStr">
         <is>
-          <t>KFF 2018, 2019</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA204" t="inlineStr">
         <is>
-          <t>Kaiser Family Foundation,  2018, 2019</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB204" t="inlineStr"/>
@@ -15681,12 +15793,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -15703,43 +15815,55 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M205" t="inlineStr"/>
-      <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr"/>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="inlineStr"/>
       <c r="V205" t="inlineStr">
         <is>
-          <t>TradSttExp</t>
+          <t>AsHcvD</t>
         </is>
       </c>
       <c r="W205" t="inlineStr">
         <is>
-          <t>Traditional Medicaid State Spending</t>
+          <t xml:space="preserve">Hepatitis C deaths among Asian populations </t>
         </is>
       </c>
       <c r="X205" t="inlineStr"/>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z205" t="inlineStr">
         <is>
-          <t>KFF 2018, 2019</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA205" t="inlineStr">
         <is>
-          <t>Kaiser Family Foundation,  2018, 2019</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB205" t="inlineStr"/>
@@ -15749,44 +15873,48 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
       <c r="Q206" t="inlineStr"/>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="inlineStr"/>
@@ -15794,28 +15922,28 @@
       <c r="U206" t="inlineStr"/>
       <c r="V206" t="inlineStr">
         <is>
-          <t>WlfrExp</t>
+          <t>AsPiHcvD</t>
         </is>
       </c>
       <c r="W206" t="inlineStr">
         <is>
-          <t>Public welfare expenditures</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander</t>
         </is>
       </c>
       <c r="X206" t="inlineStr"/>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>Survey of State and Local Government Finances 2018-2022</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA206" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB206" t="inlineStr"/>
@@ -15850,7 +15978,11 @@
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q207" t="inlineStr"/>
       <c r="R207" t="inlineStr"/>
       <c r="S207" t="inlineStr"/>
@@ -15858,12 +15990,12 @@
       <c r="U207" t="inlineStr"/>
       <c r="V207" t="inlineStr">
         <is>
-          <t>A50_74Hcv</t>
+          <t>AvA50_74HcvD</t>
         </is>
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
+          <t>Average Ages between 50 to 74 Hepitatis C virus Deaths</t>
         </is>
       </c>
       <c r="X207" t="inlineStr"/>
@@ -15901,51 +16033,19 @@
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M208" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
           <t>x</t>
@@ -15958,12 +16058,12 @@
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr">
         <is>
-          <t>A50_74HcvD</t>
+          <t>AvAmInHcvD</t>
         </is>
       </c>
       <c r="W208" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old</t>
+          <t>Hepatitis C Deaths - American Indian (5-Year Averages)</t>
         </is>
       </c>
       <c r="X208" t="inlineStr"/>
@@ -16001,51 +16101,15 @@
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr">
         <is>
           <t>x</t>
@@ -16058,12 +16122,12 @@
       <c r="U209" t="inlineStr"/>
       <c r="V209" t="inlineStr">
         <is>
-          <t>AmInHcvD</t>
+          <t>AvAsHcvD</t>
         </is>
       </c>
       <c r="W209" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian</t>
+          <t>Mean yearly Hepatitis C deaths among Asian population from 2018-2022</t>
         </is>
       </c>
       <c r="X209" t="inlineStr"/>
@@ -16105,32 +16169,16 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
       <c r="Q210" t="inlineStr"/>
       <c r="R210" t="inlineStr"/>
       <c r="S210" t="inlineStr"/>
@@ -16138,12 +16186,12 @@
       <c r="U210" t="inlineStr"/>
       <c r="V210" t="inlineStr">
         <is>
-          <t>AsHcvD</t>
+          <t>AvAsPiHcvD</t>
         </is>
       </c>
       <c r="W210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hepatitis C deaths among Asian populations </t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013 - 2017)</t>
         </is>
       </c>
       <c r="X210" t="inlineStr"/>
@@ -16181,26 +16229,10 @@
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>x</t>
@@ -16210,7 +16242,11 @@
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q211" t="inlineStr"/>
       <c r="R211" t="inlineStr"/>
       <c r="S211" t="inlineStr"/>
@@ -16218,12 +16254,12 @@
       <c r="U211" t="inlineStr"/>
       <c r="V211" t="inlineStr">
         <is>
-          <t>AsPiHcvD</t>
+          <t>AvBlkHcvD</t>
         </is>
       </c>
       <c r="W211" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander</t>
+          <t>Hepatitis C Deaths - Black (5-Year Averages)</t>
         </is>
       </c>
       <c r="X211" t="inlineStr"/>
@@ -16286,12 +16322,12 @@
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="inlineStr">
         <is>
-          <t>AvA50_74HcvD</t>
+          <t>AvFlHcvD</t>
         </is>
       </c>
       <c r="W212" t="inlineStr">
         <is>
-          <t>Average Ages between 50 to 74 Hepitatis C virus Deaths</t>
+          <t>Hepatitis C Deaths - Women (5-Year Averages)</t>
         </is>
       </c>
       <c r="X212" t="inlineStr"/>
@@ -16354,12 +16390,12 @@
       <c r="U213" t="inlineStr"/>
       <c r="V213" t="inlineStr">
         <is>
-          <t>AvAmInHcvD</t>
+          <t>AvHcvD</t>
         </is>
       </c>
       <c r="W213" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (5-Year Averages)</t>
+          <t>Average Hepitatis C virus Deaths (5-Year Averages)</t>
         </is>
       </c>
       <c r="X213" t="inlineStr"/>
@@ -16401,7 +16437,11 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L214" t="inlineStr"/>
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr"/>
@@ -16418,12 +16458,12 @@
       <c r="U214" t="inlineStr"/>
       <c r="V214" t="inlineStr">
         <is>
-          <t>AvAsHcvD</t>
+          <t>AvHspHcvD</t>
         </is>
       </c>
       <c r="W214" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Asian population from 2018-2022</t>
+          <t>Hepatitis C Deaths - Hispanic (5-Year Averages)</t>
         </is>
       </c>
       <c r="X214" t="inlineStr"/>
@@ -16474,7 +16514,11 @@
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q215" t="inlineStr"/>
       <c r="R215" t="inlineStr"/>
       <c r="S215" t="inlineStr"/>
@@ -16482,12 +16526,12 @@
       <c r="U215" t="inlineStr"/>
       <c r="V215" t="inlineStr">
         <is>
-          <t>AvAsPiHcvD</t>
+          <t>AvMlHcvD</t>
         </is>
       </c>
       <c r="W215" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Men (5-Year Averages)</t>
         </is>
       </c>
       <c r="X215" t="inlineStr"/>
@@ -16529,11 +16573,7 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr"/>
@@ -16550,12 +16590,12 @@
       <c r="U216" t="inlineStr"/>
       <c r="V216" t="inlineStr">
         <is>
-          <t>AvBlkHcvD</t>
+          <t>AvMulHcvD</t>
         </is>
       </c>
       <c r="W216" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (5-Year Averages)</t>
+          <t>Mean yearly Hepatitis C deaths among Multiple Race populations from 2018-2022</t>
         </is>
       </c>
       <c r="X216" t="inlineStr"/>
@@ -16597,11 +16637,7 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr"/>
@@ -16618,12 +16654,12 @@
       <c r="U217" t="inlineStr"/>
       <c r="V217" t="inlineStr">
         <is>
-          <t>AvFlHcvD</t>
+          <t>AvNhPiHcvD</t>
         </is>
       </c>
       <c r="W217" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (5-Year Averages)</t>
+          <t>Mean yearly Hepatitis C deaths among Native Hawaiian and Pacific Islanders population from 2018-2022</t>
         </is>
       </c>
       <c r="X217" t="inlineStr"/>
@@ -16686,12 +16722,12 @@
       <c r="U218" t="inlineStr"/>
       <c r="V218" t="inlineStr">
         <is>
-          <t>AvHcvD</t>
+          <t>AvO75HcvD</t>
         </is>
       </c>
       <c r="W218" t="inlineStr">
         <is>
-          <t>Average Hepitatis C virus Deaths (5-Year Averages)</t>
+          <t>Hepatitis C Deaths - Age Over 75  (5-Year Averages)</t>
         </is>
       </c>
       <c r="X218" t="inlineStr"/>
@@ -16754,12 +16790,12 @@
       <c r="U219" t="inlineStr"/>
       <c r="V219" t="inlineStr">
         <is>
-          <t>AvHspHcvD</t>
+          <t>AvU50HcvD</t>
         </is>
       </c>
       <c r="W219" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (5-Year Averages)</t>
+          <t>Hepatitis C Deaths - Age Under 50 (5-Year Averages)</t>
         </is>
       </c>
       <c r="X219" t="inlineStr"/>
@@ -16801,11 +16837,7 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr"/>
@@ -16822,12 +16854,12 @@
       <c r="U220" t="inlineStr"/>
       <c r="V220" t="inlineStr">
         <is>
-          <t>AvMlHcvD</t>
+          <t>AvWhHcvD</t>
         </is>
       </c>
       <c r="W220" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (5-Year Averages)</t>
+          <t>Average White Hepitatis C virus Deaths</t>
         </is>
       </c>
       <c r="X220" t="inlineStr"/>
@@ -16869,16 +16901,16 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L221" t="inlineStr"/>
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P221" t="inlineStr"/>
       <c r="Q221" t="inlineStr"/>
       <c r="R221" t="inlineStr"/>
       <c r="S221" t="inlineStr"/>
@@ -16886,12 +16918,12 @@
       <c r="U221" t="inlineStr"/>
       <c r="V221" t="inlineStr">
         <is>
-          <t>AvMulHcvD</t>
+          <t>BlkHcv</t>
         </is>
       </c>
       <c r="W221" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Multiple Race populations from 2018-2022</t>
+          <t>Yearly Hepatitis C cases - Black (2013-2016)</t>
         </is>
       </c>
       <c r="X221" t="inlineStr"/>
@@ -16929,15 +16961,51 @@
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr"/>
-      <c r="O222" t="inlineStr"/>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P222" t="inlineStr">
         <is>
           <t>x</t>
@@ -16950,12 +17018,12 @@
       <c r="U222" t="inlineStr"/>
       <c r="V222" t="inlineStr">
         <is>
-          <t>AvNhPiHcvD</t>
+          <t>BlkHcvD</t>
         </is>
       </c>
       <c r="W222" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Native Hawaiian and Pacific Islanders population from 2018-2022</t>
+          <t>Hepatitis C Deaths - Black</t>
         </is>
       </c>
       <c r="X222" t="inlineStr"/>
@@ -16993,19 +17061,51 @@
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr"/>
-      <c r="O223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P223" t="inlineStr">
         <is>
           <t>x</t>
@@ -17018,12 +17118,12 @@
       <c r="U223" t="inlineStr"/>
       <c r="V223" t="inlineStr">
         <is>
-          <t>AvO75HcvD</t>
+          <t>FlHcvD</t>
         </is>
       </c>
       <c r="W223" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Over 75  (5-Year Averages)</t>
+          <t>Hepatitis C Deaths - Women</t>
         </is>
       </c>
       <c r="X223" t="inlineStr"/>
@@ -17074,11 +17174,7 @@
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P224" t="inlineStr"/>
       <c r="Q224" t="inlineStr"/>
       <c r="R224" t="inlineStr"/>
       <c r="S224" t="inlineStr"/>
@@ -17086,12 +17182,12 @@
       <c r="U224" t="inlineStr"/>
       <c r="V224" t="inlineStr">
         <is>
-          <t>AvU50HcvD</t>
+          <t>FmHcv</t>
         </is>
       </c>
       <c r="W224" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Under 50 (5-Year Averages)</t>
+          <t>Yearly Hepatitis C cases - Women (2013-2016)</t>
         </is>
       </c>
       <c r="X224" t="inlineStr"/>
@@ -17129,15 +17225,51 @@
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="inlineStr"/>
-      <c r="N225" t="inlineStr"/>
-      <c r="O225" t="inlineStr"/>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P225" t="inlineStr">
         <is>
           <t>x</t>
@@ -17150,12 +17282,12 @@
       <c r="U225" t="inlineStr"/>
       <c r="V225" t="inlineStr">
         <is>
-          <t>AvWhHcvD</t>
+          <t>HcvD</t>
         </is>
       </c>
       <c r="W225" t="inlineStr">
         <is>
-          <t>Average White Hepitatis C virus Deaths</t>
+          <t>Hepatitis C Deaths</t>
         </is>
       </c>
       <c r="X225" t="inlineStr"/>
@@ -17193,20 +17325,56 @@
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="inlineStr"/>
-      <c r="N226" t="inlineStr"/>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q226" t="inlineStr"/>
       <c r="R226" t="inlineStr"/>
       <c r="S226" t="inlineStr"/>
@@ -17214,12 +17382,12 @@
       <c r="U226" t="inlineStr"/>
       <c r="V226" t="inlineStr">
         <is>
-          <t>BlkHcv</t>
+          <t>HspHcvD</t>
         </is>
       </c>
       <c r="W226" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Black (2013-2016)</t>
+          <t>Hepatitis C Deaths - Hispanic</t>
         </is>
       </c>
       <c r="X226" t="inlineStr"/>
@@ -17257,56 +17425,20 @@
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P227" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
       <c r="Q227" t="inlineStr"/>
       <c r="R227" t="inlineStr"/>
       <c r="S227" t="inlineStr"/>
@@ -17314,12 +17446,12 @@
       <c r="U227" t="inlineStr"/>
       <c r="V227" t="inlineStr">
         <is>
-          <t>BlkHcvD</t>
+          <t>MlHcv</t>
         </is>
       </c>
       <c r="W227" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black</t>
+          <t>Yearly Hepatitis C cases - Men (2013-2016)</t>
         </is>
       </c>
       <c r="X227" t="inlineStr"/>
@@ -17414,12 +17546,12 @@
       <c r="U228" t="inlineStr"/>
       <c r="V228" t="inlineStr">
         <is>
-          <t>FlHcvD</t>
+          <t>MlHcvD</t>
         </is>
       </c>
       <c r="W228" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women</t>
+          <t>Hepatitis C Deaths - Men</t>
         </is>
       </c>
       <c r="X228" t="inlineStr"/>
@@ -17461,16 +17593,32 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
-      <c r="N229" t="inlineStr"/>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q229" t="inlineStr"/>
       <c r="R229" t="inlineStr"/>
       <c r="S229" t="inlineStr"/>
@@ -17478,12 +17626,12 @@
       <c r="U229" t="inlineStr"/>
       <c r="V229" t="inlineStr">
         <is>
-          <t>FmHcv</t>
+          <t>MulHcvD</t>
         </is>
       </c>
       <c r="W229" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Women (2013-2016)</t>
+          <t xml:space="preserve">Hepatitis C deaths among Multiple Race populations </t>
         </is>
       </c>
       <c r="X229" t="inlineStr"/>
@@ -17521,31 +17669,11 @@
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>x</t>
@@ -17578,12 +17706,12 @@
       <c r="U230" t="inlineStr"/>
       <c r="V230" t="inlineStr">
         <is>
-          <t>HcvD</t>
+          <t>NhPiHcvD</t>
         </is>
       </c>
       <c r="W230" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths</t>
+          <t xml:space="preserve">Hepatitis C deaths among Native Hawaiian and Pacific Islander populations </t>
         </is>
       </c>
       <c r="X230" t="inlineStr"/>
@@ -17621,56 +17749,20 @@
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O231" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P231" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
       <c r="Q231" t="inlineStr"/>
       <c r="R231" t="inlineStr"/>
       <c r="S231" t="inlineStr"/>
@@ -17678,12 +17770,12 @@
       <c r="U231" t="inlineStr"/>
       <c r="V231" t="inlineStr">
         <is>
-          <t>HspHcvD</t>
+          <t>NonBlkHcv</t>
         </is>
       </c>
       <c r="W231" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic</t>
+          <t>Yearly Hepatitis C cases - non-Black (2013-2016)</t>
         </is>
       </c>
       <c r="X231" t="inlineStr"/>
@@ -17721,20 +17813,56 @@
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
-      <c r="N232" t="inlineStr"/>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q232" t="inlineStr"/>
       <c r="R232" t="inlineStr"/>
       <c r="S232" t="inlineStr"/>
@@ -17742,12 +17870,12 @@
       <c r="U232" t="inlineStr"/>
       <c r="V232" t="inlineStr">
         <is>
-          <t>MlHcv</t>
+          <t>O75HcvD</t>
         </is>
       </c>
       <c r="W232" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Men (2013-2016)</t>
+          <t>Hepatitis C Deaths - Over 75 years old</t>
         </is>
       </c>
       <c r="X232" t="inlineStr"/>
@@ -17785,56 +17913,20 @@
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M233" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P233" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
       <c r="Q233" t="inlineStr"/>
       <c r="R233" t="inlineStr"/>
       <c r="S233" t="inlineStr"/>
@@ -17842,12 +17934,12 @@
       <c r="U233" t="inlineStr"/>
       <c r="V233" t="inlineStr">
         <is>
-          <t>MlHcvD</t>
+          <t>Ov75Hcv</t>
         </is>
       </c>
       <c r="W233" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men</t>
+          <t>Yearly Hepatitis C cases - Over 75 years old (2013-2016)</t>
         </is>
       </c>
       <c r="X233" t="inlineStr"/>
@@ -17889,32 +17981,16 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N234" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P234" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
       <c r="Q234" t="inlineStr"/>
       <c r="R234" t="inlineStr"/>
       <c r="S234" t="inlineStr"/>
@@ -17922,12 +17998,12 @@
       <c r="U234" t="inlineStr"/>
       <c r="V234" t="inlineStr">
         <is>
-          <t>MulHcvD</t>
+          <t>TotHcv</t>
         </is>
       </c>
       <c r="W234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hepatitis C deaths among Multiple Race populations </t>
+          <t>Yearly Hepatitis C cases (2013-2016)</t>
         </is>
       </c>
       <c r="X234" t="inlineStr"/>
@@ -17965,11 +18041,31 @@
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>x</t>
@@ -18002,12 +18098,12 @@
       <c r="U235" t="inlineStr"/>
       <c r="V235" t="inlineStr">
         <is>
-          <t>NhPiHcvD</t>
+          <t>U50HcvD</t>
         </is>
       </c>
       <c r="W235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hepatitis C deaths among Native Hawaiian and Pacific Islander populations </t>
+          <t>Hepatitis C Deaths - Under 50 years old</t>
         </is>
       </c>
       <c r="X235" t="inlineStr"/>
@@ -18066,12 +18162,12 @@
       <c r="U236" t="inlineStr"/>
       <c r="V236" t="inlineStr">
         <is>
-          <t>NonBlkHcv</t>
+          <t>Un50Hcv</t>
         </is>
       </c>
       <c r="W236" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - non-Black (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - Under 50 years old (2013-2016)</t>
         </is>
       </c>
       <c r="X236" t="inlineStr"/>
@@ -18109,31 +18205,11 @@
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>x</t>
@@ -18166,12 +18242,12 @@
       <c r="U237" t="inlineStr"/>
       <c r="V237" t="inlineStr">
         <is>
-          <t>O75HcvD</t>
+          <t>WhtHcvD</t>
         </is>
       </c>
       <c r="W237" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Over 75 years old</t>
+          <t>Hepatitis C deaths among White populations</t>
         </is>
       </c>
       <c r="X237" t="inlineStr"/>
@@ -18202,7 +18278,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -18210,19 +18286,51 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
-      <c r="N238" t="inlineStr"/>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q238" t="inlineStr"/>
       <c r="R238" t="inlineStr"/>
       <c r="S238" t="inlineStr"/>
@@ -18230,28 +18338,28 @@
       <c r="U238" t="inlineStr"/>
       <c r="V238" t="inlineStr">
         <is>
-          <t>Ov75Hcv</t>
+          <t>OdMortRt</t>
         </is>
       </c>
       <c r="W238" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Over 75 years old (2013-2016)</t>
+          <t>Overdose Mortality Rate</t>
         </is>
       </c>
       <c r="X238" t="inlineStr"/>
       <c r="Y238" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z238" t="inlineStr">
         <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA238" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB238" t="inlineStr"/>
@@ -18266,7 +18374,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -18277,14 +18385,14 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
       <c r="M239" t="inlineStr"/>
-      <c r="N239" t="inlineStr"/>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr"/>
       <c r="Q239" t="inlineStr"/>
@@ -18294,28 +18402,28 @@
       <c r="U239" t="inlineStr"/>
       <c r="V239" t="inlineStr">
         <is>
-          <t>TotHcv</t>
+          <t>OdMortRtAv</t>
         </is>
       </c>
       <c r="W239" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases (2013-2016)</t>
+          <t>Overdose Mortality Rate Average (2016-2020)</t>
         </is>
       </c>
       <c r="X239" t="inlineStr"/>
       <c r="Y239" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z239" t="inlineStr">
         <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA239" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB239" t="inlineStr"/>
@@ -18330,58 +18438,26 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr">
         <is>
           <t>x</t>
@@ -18394,28 +18470,28 @@
       <c r="U240" t="inlineStr"/>
       <c r="V240" t="inlineStr">
         <is>
-          <t>U50HcvD</t>
+          <t>OpRxRt</t>
         </is>
       </c>
       <c r="W240" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Under 50 years old</t>
+          <t>Opioid Prescription Rate</t>
         </is>
       </c>
       <c r="X240" t="inlineStr"/>
       <c r="Y240" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z240" t="inlineStr">
         <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA240" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB240" t="inlineStr"/>
@@ -18430,7 +18506,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -18441,16 +18517,20 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
       <c r="M241" t="inlineStr"/>
-      <c r="N241" t="inlineStr"/>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q241" t="inlineStr"/>
       <c r="R241" t="inlineStr"/>
       <c r="S241" t="inlineStr"/>
@@ -18458,409 +18538,33 @@
       <c r="U241" t="inlineStr"/>
       <c r="V241" t="inlineStr">
         <is>
-          <t>Un50Hcv</t>
+          <t>PrMsuseP</t>
         </is>
       </c>
       <c r="W241" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Under 50 years old (2013-2016)</t>
+          <t>% Self-Report Misuse of Prescription Pain Medication (2020)</t>
         </is>
       </c>
       <c r="X241" t="inlineStr"/>
       <c r="Y241" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z241" t="inlineStr">
         <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA241" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB241" t="inlineStr"/>
       <c r="AC241" t="inlineStr"/>
       <c r="AD241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Hepatitis C Rates</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr"/>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M242" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N242" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O242" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P242" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="inlineStr"/>
-      <c r="T242" t="inlineStr"/>
-      <c r="U242" t="inlineStr"/>
-      <c r="V242" t="inlineStr">
-        <is>
-          <t>WhtHcvD</t>
-        </is>
-      </c>
-      <c r="W242" t="inlineStr">
-        <is>
-          <t>Hepatitis C deaths among White populations</t>
-        </is>
-      </c>
-      <c r="X242" t="inlineStr"/>
-      <c r="Y242" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
-        </is>
-      </c>
-      <c r="Z242" t="inlineStr">
-        <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
-        </is>
-      </c>
-      <c r="AA242" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
-        </is>
-      </c>
-      <c r="AB242" t="inlineStr"/>
-      <c r="AC242" t="inlineStr"/>
-      <c r="AD242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M243" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N243" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P243" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="inlineStr"/>
-      <c r="T243" t="inlineStr"/>
-      <c r="U243" t="inlineStr"/>
-      <c r="V243" t="inlineStr">
-        <is>
-          <t>OdMortRt</t>
-        </is>
-      </c>
-      <c r="W243" t="inlineStr">
-        <is>
-          <t>Overdose Mortality Rate</t>
-        </is>
-      </c>
-      <c r="X243" t="inlineStr"/>
-      <c r="Y243" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z243" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA243" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB243" t="inlineStr"/>
-      <c r="AC243" t="inlineStr"/>
-      <c r="AD243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
-      <c r="N244" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="inlineStr"/>
-      <c r="T244" t="inlineStr"/>
-      <c r="U244" t="inlineStr"/>
-      <c r="V244" t="inlineStr">
-        <is>
-          <t>OdMortRtAv</t>
-        </is>
-      </c>
-      <c r="W244" t="inlineStr">
-        <is>
-          <t>Overdose Mortality Rate Average (2016-2020)</t>
-        </is>
-      </c>
-      <c r="X244" t="inlineStr"/>
-      <c r="Y244" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z244" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA244" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB244" t="inlineStr"/>
-      <c r="AC244" t="inlineStr"/>
-      <c r="AD244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
-      <c r="N245" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="inlineStr"/>
-      <c r="T245" t="inlineStr"/>
-      <c r="U245" t="inlineStr"/>
-      <c r="V245" t="inlineStr">
-        <is>
-          <t>OpRxRt</t>
-        </is>
-      </c>
-      <c r="W245" t="inlineStr">
-        <is>
-          <t>Opioid Prescription Rate</t>
-        </is>
-      </c>
-      <c r="X245" t="inlineStr"/>
-      <c r="Y245" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z245" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA245" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB245" t="inlineStr"/>
-      <c r="AC245" t="inlineStr"/>
-      <c r="AD245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
-      <c r="N246" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="inlineStr"/>
-      <c r="T246" t="inlineStr"/>
-      <c r="U246" t="inlineStr"/>
-      <c r="V246" t="inlineStr">
-        <is>
-          <t>PrMsuseP</t>
-        </is>
-      </c>
-      <c r="W246" t="inlineStr">
-        <is>
-          <t>% Self-Report Misuse of Prescription Pain Medication (2020)</t>
-        </is>
-      </c>
-      <c r="X246" t="inlineStr"/>
-      <c r="Y246" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z246" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA246" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB246" t="inlineStr"/>
-      <c r="AC246" t="inlineStr"/>
-      <c r="AD246" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/src/reference/data-dictionaries/S_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/S_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD215"/>
+  <dimension ref="A1:AD204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7621,25 +7621,17 @@
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr">
         <is>
-          <t>BupTmBk</t>
+          <t>CntBupT</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Tracts with Buprenorphine Provider (30-min driving)</t>
         </is>
       </c>
       <c r="X91" t="inlineStr"/>
@@ -7693,25 +7685,17 @@
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr">
         <is>
-          <t>BupTmDr</t>
+          <t>CntMetT</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+          <t>Tracts with Methadone Provider (30-min driving)</t>
         </is>
       </c>
       <c r="X92" t="inlineStr"/>
@@ -7765,25 +7749,17 @@
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr">
         <is>
-          <t>BupTmWk</t>
+          <t>CntNaltT</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Tracts with Naltrexone Provider (30-min driving)</t>
         </is>
       </c>
       <c r="X93" t="inlineStr"/>
@@ -7828,12 +7804,12 @@
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
@@ -7842,12 +7818,12 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr">
         <is>
-          <t>CntBupT</t>
+          <t>OtpAvTmDr</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider (30-min driving)</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="X94" t="inlineStr"/>
@@ -7892,12 +7868,12 @@
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
@@ -7906,12 +7882,12 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr">
         <is>
-          <t>CntMetT</t>
+          <t>OtpCtTmDr</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider (30-min driving)</t>
+          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="X95" t="inlineStr"/>
@@ -7956,12 +7932,12 @@
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
@@ -7970,12 +7946,12 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr">
         <is>
-          <t>CntNaltT</t>
+          <t>OtpTmDrP</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider (30-min driving)</t>
+          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="X96" t="inlineStr"/>
@@ -8029,25 +8005,17 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr">
         <is>
-          <t>MetTmBk</t>
+          <t>PctBupT</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Methadone Provider</t>
+          <t>% Tracts within 30-min Drive of Buprenorphine Provider</t>
         </is>
       </c>
       <c r="X97" t="inlineStr"/>
@@ -8101,25 +8069,17 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr">
         <is>
-          <t>MetTmDr</t>
+          <t>PctMetT</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Methadone Provider</t>
+          <t>% Tracts within 30-min Drive of Methadone Provider</t>
         </is>
       </c>
       <c r="X98" t="inlineStr"/>
@@ -8173,25 +8133,17 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr">
         <is>
-          <t>MetTmWk</t>
+          <t>PctNaltT</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Methadone Provider</t>
+          <t>% Tracts within 30-min Drive of Naltrexone Provider</t>
         </is>
       </c>
       <c r="X99" t="inlineStr"/>
@@ -8236,11 +8188,7 @@
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
@@ -8250,20 +8198,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr">
         <is>
-          <t>NaltTmBk</t>
+          <t>TlBupTmBk</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Naltrexone Provider</t>
+          <t>Biking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X100" t="inlineStr"/>
@@ -8308,11 +8252,7 @@
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
@@ -8322,20 +8262,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr">
         <is>
-          <t>NaltTmDr</t>
+          <t>TlBupTmWk</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Naltrexone Provider</t>
+          <t>Walking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="X101" t="inlineStr"/>
@@ -8366,7 +8302,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -8389,41 +8325,33 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr">
         <is>
-          <t>NaltTmWk</t>
+          <t>MhAvTmDr</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB102" t="inlineStr"/>
@@ -8438,7 +8366,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -8452,12 +8380,12 @@
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
@@ -8466,28 +8394,28 @@
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr">
         <is>
-          <t>OtpAvTmDr</t>
+          <t>MhCtTmDr</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB103" t="inlineStr"/>
@@ -8502,7 +8430,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -8516,12 +8444,12 @@
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
@@ -8530,28 +8458,28 @@
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr">
         <is>
-          <t>OtpCtTmDr</t>
+          <t>MhTmDrP</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t>% Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr"/>
@@ -8566,7 +8494,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -8579,13 +8507,13 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
@@ -8594,28 +8522,28 @@
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr">
         <is>
-          <t>OtpTmDrP</t>
+          <t>RxAvTmDr</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
       <c r="X105" t="inlineStr"/>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB105" t="inlineStr"/>
@@ -8630,7 +8558,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -8643,12 +8571,12 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
@@ -8658,28 +8586,28 @@
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr">
         <is>
-          <t>PctBupT</t>
+          <t>RxCtTmDr</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Buprenorphine Provider</t>
+          <t>Tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr"/>
@@ -8694,7 +8622,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -8707,12 +8635,12 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
@@ -8722,28 +8650,28 @@
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr">
         <is>
-          <t>PctMetT</t>
+          <t>RxTmDrP</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Methadone Provider</t>
+          <t>% tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>InfoGroup 2019</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AB107" t="inlineStr"/>
@@ -8758,7 +8686,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -8786,28 +8714,28 @@
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr">
         <is>
-          <t>PctNaltT</t>
+          <t>SutpAvTmDr</t>
         </is>
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Naltrexone Provider</t>
+          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
         </is>
       </c>
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr"/>
@@ -8822,7 +8750,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -8836,42 +8764,42 @@
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr">
         <is>
-          <t>TlBupMinDis</t>
+          <t>SutpCtTmDr</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>Minimum distance to telehealth buprenorphine provider</t>
+          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
         </is>
       </c>
       <c r="X109" t="inlineStr"/>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB109" t="inlineStr"/>
@@ -8886,7 +8814,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -8900,42 +8828,42 @@
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr">
         <is>
-          <t>TlBupTmBk</t>
+          <t>SutpTmDrP</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>Biking time to nearest telehealth buprenorphine provider</t>
+          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
         </is>
       </c>
       <c r="X110" t="inlineStr"/>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>SAMHSA 2020</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr"/>
@@ -8950,7 +8878,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -8964,7 +8892,11 @@
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
@@ -8978,28 +8910,28 @@
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr">
         <is>
-          <t>TlBupTmDr</t>
+          <t>FqhcAvTmDr</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>Driving time to nearest telehealth buprenorphine provider</t>
+          <t>Average driving time to nearest Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X111" t="inlineStr"/>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr"/>
@@ -9014,7 +8946,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -9028,7 +8960,11 @@
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
@@ -9042,28 +8978,28 @@
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr">
         <is>
-          <t>TlBupTmWk</t>
+          <t>FqhcCtTmDr</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>Walking time to nearest telehealth buprenorphine provider</t>
+          <t>Count of Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X112" t="inlineStr"/>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>SAMSHA 2019, 2021; Vivitrol 2020; OSRM 2020;</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2019; Vivitrol, 2020; Open Source Routing Machine, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB112" t="inlineStr"/>
@@ -9078,7 +9014,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -9101,33 +9037,37 @@
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr">
         <is>
-          <t>MhAvTmDr</t>
+          <t>FqhcTmDrP</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>% Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
         </is>
       </c>
       <c r="X113" t="inlineStr"/>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB113" t="inlineStr"/>
@@ -9142,7 +9082,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -9154,44 +9094,48 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr">
         <is>
-          <t>MhCtTmDr</t>
+          <t>TotTracts</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>Tracts with Mental Health Provider (30-min drive)</t>
+          <t>Total Census Tract Count</t>
         </is>
       </c>
       <c r="X114" t="inlineStr"/>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
         </is>
       </c>
       <c r="AB114" t="inlineStr"/>
@@ -9201,12 +9145,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -9218,13 +9162,13 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
@@ -9234,28 +9178,28 @@
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr">
         <is>
-          <t>MhTmDrP</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>% Tracts with Mental Health Provider (30-min drive)</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="X115" t="inlineStr"/>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB115" t="inlineStr"/>
@@ -9265,12 +9209,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -9282,44 +9226,52 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr">
         <is>
-          <t>RxAvTmDr</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="X116" t="inlineStr"/>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB116" t="inlineStr"/>
@@ -9329,12 +9281,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -9346,44 +9298,52 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr">
         <is>
-          <t>RxCtTmDr</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>Tracts with Pharmacy (30-min drive)</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA117" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB117" t="inlineStr"/>
@@ -9393,12 +9353,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -9410,44 +9370,52 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr">
         <is>
-          <t>RxTmDrP</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>% tracts with Pharmacy (30-min drive)</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="X118" t="inlineStr"/>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>InfoGroup 2019</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr"/>
@@ -9457,12 +9425,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -9474,7 +9442,11 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
@@ -9483,35 +9455,39 @@
       </c>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr">
         <is>
-          <t>SutpAvTmDr</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="X119" t="inlineStr"/>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA119" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB119" t="inlineStr"/>
@@ -9521,12 +9497,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Employment Trends</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -9538,7 +9514,11 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
@@ -9547,35 +9527,39 @@
       </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr">
         <is>
-          <t>SutpCtTmDr</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="X120" t="inlineStr"/>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
         </is>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>ACS 2018, 2023</t>
         </is>
       </c>
       <c r="AA120" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB120" t="inlineStr"/>
@@ -9585,12 +9569,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -9602,13 +9586,13 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
@@ -9618,28 +9602,28 @@
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr">
         <is>
-          <t>SutpTmDrP</t>
+          <t>ForDqP</t>
         </is>
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
+          <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
       <c r="X121" t="inlineStr"/>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>SAMHSA 2020</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA121" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration, Treatment Locator Tool, 2020</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB121" t="inlineStr"/>
@@ -9649,12 +9633,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -9666,48 +9650,44 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr">
         <is>
-          <t>FqhcAvTmDr</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>Average driving time to nearest Federally Qualified Health Center (FQHC)</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="X122" t="inlineStr"/>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA122" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB122" t="inlineStr"/>
@@ -9717,24 +9697,32 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
@@ -9743,39 +9731,39 @@
       </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr">
         <is>
-          <t>FqhcCtTmDr</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>Count of Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>HUD 2018; ACS 2012, 2018</t>
         </is>
       </c>
       <c r="AA123" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
         </is>
       </c>
       <c r="AB123" t="inlineStr"/>
@@ -9785,12 +9773,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Internet Access</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -9803,47 +9791,43 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr">
         <is>
-          <t>FqhcTmDrP</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min drive of Federally Qualified Health Center (FQHC)</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="X124" t="inlineStr"/>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2019</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2015-2019 5-Year Estimate</t>
         </is>
       </c>
       <c r="AB124" t="inlineStr"/>
@@ -9853,18 +9837,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Spatial access to Federally Qualified Health Centers (FQHCs)</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
@@ -9876,42 +9864,46 @@
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr">
         <is>
-          <t>TotTracts</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>Total Census Tract Count</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="X125" t="inlineStr"/>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>HRSA 2020 &amp; 2025; OSM 2019 &amp; 2025; Census TIGER 2018 &amp; 2020</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Administration, 2020 &amp; 2025; Open Street Map 2019 &amp; 2025; Census Tiger/Line 2018 &amp; 2020 Shapefiles</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB125" t="inlineStr"/>
@@ -9926,13 +9918,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -9944,38 +9940,46 @@
         </is>
       </c>
       <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="X126" t="inlineStr"/>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB126" t="inlineStr"/>
@@ -9990,13 +9994,29 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
@@ -10023,31 +10043,35 @@
       <c r="R127" t="inlineStr"/>
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="X127" t="inlineStr"/>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB127" t="inlineStr"/>
@@ -10062,13 +10086,29 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
+          <t>Poverty, Income, Gini Coefficient</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
@@ -10095,31 +10135,35 @@
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="X128" t="inlineStr"/>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>ACS 2012, 2018; Social Explorer 2010</t>
         </is>
       </c>
       <c r="AA128" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AB128" t="inlineStr"/>
@@ -10129,12 +10173,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -10145,53 +10189,57 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N129" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O129" t="inlineStr"/>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>AnyGslDt</t>
         </is>
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
+          <t>Any Good Samaritan Law (date)</t>
         </is>
       </c>
       <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
         </is>
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>OPTIC 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AA129" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AB129" t="inlineStr"/>
@@ -10201,12 +10249,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -10217,53 +10265,57 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N130" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O130" t="inlineStr"/>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>AnyGslFr</t>
         </is>
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Any Good Samaritan Law (fraction of year in 2018)</t>
         </is>
       </c>
       <c r="X130" t="inlineStr"/>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>OPTIC 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AB130" t="inlineStr"/>
@@ -10273,12 +10325,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -10289,53 +10341,65 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N131" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>AnyNalxDt</t>
         </is>
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>Any Naloxone Law (date)</t>
         </is>
       </c>
       <c r="X131" t="inlineStr"/>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>ACS 2018, 2023</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 &amp; 2019-2023 5-Year Estimates</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB131" t="inlineStr"/>
@@ -10345,12 +10409,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -10361,16 +10425,36 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="inlineStr"/>
@@ -10378,28 +10462,28 @@
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>AnyNalxFr</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>Naloxone Law allowing distribution through a standing or order (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X132" t="inlineStr"/>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB132" t="inlineStr"/>
@@ -10409,12 +10493,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -10426,12 +10510,12 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
@@ -10442,28 +10526,28 @@
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>ExpSsp</t>
         </is>
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Syringe Service Program (SSP) Authorization Laws</t>
         </is>
       </c>
       <c r="X133" t="inlineStr"/>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB133" t="inlineStr"/>
@@ -10473,73 +10557,73 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N134" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O134" t="inlineStr"/>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
       <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>GslArrDt</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Good Samaritan Law Protecting Arrest (date)</t>
         </is>
       </c>
       <c r="X134" t="inlineStr"/>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>HUD 2018; ACS 2012, 2018</t>
+          <t>OPTIC 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program; American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AB134" t="inlineStr"/>
@@ -10549,12 +10633,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Internet Access</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -10565,15 +10649,27 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
@@ -10582,28 +10678,28 @@
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>GslArrFr</t>
         </is>
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Good Samaritan Law Protecting Arrest (fraction of year in 2018)</t>
         </is>
       </c>
       <c r="X135" t="inlineStr"/>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>ACS 2019</t>
+          <t>OPTIC 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5-Year Estimate</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr"/>
@@ -10613,73 +10709,81 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N136" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>NalxPrStDt</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Naloxone Law allowing distribution through a standing or order (date)</t>
         </is>
       </c>
       <c r="X136" t="inlineStr"/>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr"/>
@@ -10689,73 +10793,81 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N137" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>NalxPrStFr</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Naloxone Law in Effect (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X137" t="inlineStr"/>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr"/>
@@ -10765,89 +10877,81 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Harm Reduction Policies</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N138" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>NalxPresDt</t>
         </is>
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Naloxone Law allowing pharmacists prescriptive authority (date)</t>
         </is>
       </c>
       <c r="X138" t="inlineStr"/>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA138" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB138" t="inlineStr"/>
@@ -10857,89 +10961,81 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Harm Reduction Policies</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N139" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>NalxPresFr</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Naloxone Law allowing pharmacists prescriptive authority (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X139" t="inlineStr"/>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>ACS 2012, 2018; Social Explorer 2010</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr">
         <is>
-          <t>American Community Survey 2008-2012 &amp; 2014-2018 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB139" t="inlineStr"/>
@@ -10965,27 +11061,15 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
@@ -10994,28 +11078,28 @@
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr">
         <is>
-          <t>AnyGslDt</t>
+          <t>NoLwRmUnc</t>
         </is>
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>Any Good Samaritan Law (date)</t>
+          <t>Laws removing barriers to SSPs</t>
         </is>
       </c>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>OPTIC 2017, 2019, 2020, 2021</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA140" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB140" t="inlineStr"/>
@@ -11041,27 +11125,15 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
@@ -11070,28 +11142,28 @@
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr">
         <is>
-          <t>AnyGslFr</t>
+          <t>NoPrphLw</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>Any Good Samaritan Law (fraction of year in 2018)</t>
+          <t>Drug Paraphernalia Laws</t>
         </is>
       </c>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>OPTIC 2017, 2019, 2020, 2021</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB141" t="inlineStr"/>
@@ -11117,36 +11189,16 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="inlineStr"/>
@@ -11154,28 +11206,28 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr">
         <is>
-          <t>AnyNalxDt</t>
+          <t>NtPrFrDsSy</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>Any Naloxone Law (date)</t>
+          <t>Distribution of Syringes Laws</t>
         </is>
       </c>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB142" t="inlineStr"/>
@@ -11201,36 +11253,16 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
@@ -11238,28 +11270,28 @@
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr">
         <is>
-          <t>AnyNalxFr</t>
+          <t>PrExcInj</t>
         </is>
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing distribution through a standing or order (fraction of year in 2017)</t>
+          <t>Paraphernalia exludes objects used for injecting drugs</t>
         </is>
       </c>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB143" t="inlineStr"/>
@@ -11302,12 +11334,12 @@
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr">
         <is>
-          <t>ExpSsp</t>
+          <t>PrNtRefInj</t>
         </is>
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>Syringe Service Program (SSP) Authorization Laws</t>
+          <t>Paraphernalia does not refer to objects used for injecting drugs</t>
         </is>
       </c>
       <c r="X144" t="inlineStr"/>
@@ -11338,7 +11370,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Marijuana Policies</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -11354,7 +11386,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M145" t="inlineStr">
         <is>
           <t>x</t>
@@ -11370,36 +11406,44 @@
           <t>x</t>
         </is>
       </c>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr">
         <is>
-          <t>GslArrDt</t>
+          <t>MdMarijLaw</t>
         </is>
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>Good Samaritan Law Protecting Arrest (date)</t>
+          <t xml:space="preserve">Laws authorizing medical marijuana use </t>
         </is>
       </c>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Marijuana_Laws.md</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>OPTIC 2017, 2019, 2020, 2021</t>
+          <t>PDAPS 2017</t>
         </is>
       </c>
       <c r="AA145" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
+          <t>Prescription Drug Abuse Policy System, Medical Marijuana Caregiver Rules, 2017</t>
         </is>
       </c>
       <c r="AB145" t="inlineStr"/>
@@ -11414,7 +11458,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -11430,7 +11474,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M146" t="inlineStr">
         <is>
           <t>x</t>
@@ -11446,36 +11494,44 @@
           <t>x</t>
         </is>
       </c>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr">
         <is>
-          <t>GslArrFr</t>
+          <t>AnyPdmpDt</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Good Samaritan Law Protecting Arrest (fraction of year in 2018)</t>
+          <t>Any PDMP start date</t>
         </is>
       </c>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>OPTIC 2017, 2019, 2020, 2021</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB146" t="inlineStr"/>
@@ -11490,7 +11546,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -11531,25 +11587,29 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Q147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>NalxPrStDt</t>
+          <t>AnyPdmpFr</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing distribution through a standing or order (date)</t>
+          <t>Any PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
@@ -11574,7 +11634,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -11615,25 +11675,29 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Q148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr">
         <is>
-          <t>NalxPrStFr</t>
+          <t>AnyPdmphDt</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Naloxone Law in Effect (fraction of year in 2017)</t>
+          <t>Any Horowitz PDMP start date</t>
         </is>
       </c>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
@@ -11658,7 +11722,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -11699,25 +11763,29 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Q149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R149" t="inlineStr"/>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr">
         <is>
-          <t>NalxPresDt</t>
+          <t>AnyPdmphFr</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing pharmacists prescriptive authority (date)</t>
+          <t>Any Horowitz PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
@@ -11742,7 +11810,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -11783,25 +11851,29 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Q150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr">
         <is>
-          <t>NalxPresFr</t>
+          <t>ElcPdmpDt</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing pharmacists prescriptive authority (fraction of year in 2017)</t>
+          <t>Electronic PDMP start date</t>
         </is>
       </c>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
@@ -11826,7 +11898,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -11837,45 +11909,69 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M151" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr">
         <is>
-          <t>NoLwRmUnc</t>
+          <t>ElcPdmpFr</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Laws removing barriers to SSPs</t>
+          <t>Electronic PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB151" t="inlineStr"/>
@@ -11890,7 +11986,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -11901,45 +11997,69 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M152" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R152" t="inlineStr"/>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr">
         <is>
-          <t>NoPrphLw</t>
+          <t>MsAcPdmpDt</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Drug Paraphernalia Laws</t>
+          <t>Must-Access PDMP start date</t>
         </is>
       </c>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB152" t="inlineStr"/>
@@ -11954,7 +12074,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -11965,45 +12085,69 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M153" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R153" t="inlineStr"/>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr">
         <is>
-          <t>NtPrFrDsSy</t>
+          <t>MsAcPdmpFr</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Distribution of Syringes Laws</t>
+          <t>Must-Access PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB153" t="inlineStr"/>
@@ -12018,7 +12162,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -12029,45 +12173,69 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M154" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr">
         <is>
-          <t>PrExcInj</t>
+          <t>OpPdmpDt</t>
         </is>
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>Paraphernalia exludes objects used for injecting drugs</t>
+          <t>Operational PDMP start date</t>
         </is>
       </c>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB154" t="inlineStr"/>
@@ -12082,7 +12250,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -12093,45 +12261,69 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M155" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr">
         <is>
-          <t>PrNtRefInj</t>
+          <t>OpPdmpFr</t>
         </is>
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>Paraphernalia does not refer to objects used for injecting drugs</t>
+          <t>Operational PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB155" t="inlineStr"/>
@@ -12146,7 +12338,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Marijuana Policies</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -12157,16 +12349,8 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
           <t>x</t>
@@ -12187,39 +12371,35 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Q156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr">
         <is>
-          <t>MdMarijLaw</t>
+          <t>CrrctExp</t>
         </is>
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laws authorizing medical marijuana use </t>
+          <t>Corrections expenditures</t>
         </is>
       </c>
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Marijuana_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>PDAPS 2017</t>
+          <t>Survey of State and Local Government Finances 2018-2022</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>Prescription Drug Abuse Policy System, Medical Marijuana Caregiver Rules, 2017</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AB156" t="inlineStr"/>
@@ -12234,7 +12414,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -12245,36 +12425,16 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr">
         <is>
           <t>x</t>
@@ -12286,28 +12446,28 @@
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>AnyPdmpDt</t>
+          <t>ExpnFedExp</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>Any PDMP start date</t>
+          <t>Expansion Medicaid Federal Spending</t>
         </is>
       </c>
       <c r="X157" t="inlineStr"/>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>KFF 2018, 2019</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Kaiser Family Foundation,  2018, 2019</t>
         </is>
       </c>
       <c r="AB157" t="inlineStr"/>
@@ -12322,7 +12482,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -12333,36 +12493,16 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr">
         <is>
           <t>x</t>
@@ -12374,28 +12514,28 @@
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr">
         <is>
-          <t>AnyPdmpFr</t>
+          <t>ExpnSttExp</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>Any PDMP (fraction of year in 2017)</t>
+          <t>Expansion Medicaid State Spending</t>
         </is>
       </c>
       <c r="X158" t="inlineStr"/>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>KFF 2018, 2019</t>
         </is>
       </c>
       <c r="AA158" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Kaiser Family Foundation,  2018, 2019</t>
         </is>
       </c>
       <c r="AB158" t="inlineStr"/>
@@ -12410,7 +12550,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -12421,16 +12561,8 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
           <t>x</t>
@@ -12451,39 +12583,35 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr">
         <is>
-          <t>AnyPdmphDt</t>
+          <t>HlthExp</t>
         </is>
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>Any Horowitz PDMP start date</t>
+          <t>Public health expenditures</t>
         </is>
       </c>
       <c r="X159" t="inlineStr"/>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>Survey of State and Local Government Finances 2018-2022</t>
         </is>
       </c>
       <c r="AA159" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AB159" t="inlineStr"/>
@@ -12498,7 +12626,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -12509,11 +12637,7 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>x</t>
@@ -12524,21 +12648,9 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr">
         <is>
           <t>x</t>
@@ -12550,28 +12662,28 @@
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr">
         <is>
-          <t>AnyPdmphFr</t>
+          <t>MedcdExp</t>
         </is>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>Any Horowitz PDMP (fraction of year in 2017)</t>
+          <t>Total Medicaid Spending</t>
         </is>
       </c>
       <c r="X160" t="inlineStr"/>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>KFF 2018, 2019</t>
         </is>
       </c>
       <c r="AA160" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Kaiser Family Foundation,  2018, 2019</t>
         </is>
       </c>
       <c r="AB160" t="inlineStr"/>
@@ -12586,7 +12698,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -12597,16 +12709,8 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr">
         <is>
           <t>x</t>
@@ -12627,39 +12731,35 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Q161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr">
         <is>
-          <t>ElcPdmpDt</t>
+          <t>PlcFyrExp</t>
         </is>
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>Electronic PDMP start date</t>
+          <t>Police &amp; fire expenditures</t>
         </is>
       </c>
       <c r="X161" t="inlineStr"/>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>Survey of State and Local Government Finances 2018-2022</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AB161" t="inlineStr"/>
@@ -12674,7 +12774,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -12685,36 +12785,16 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr">
         <is>
           <t>x</t>
@@ -12726,28 +12806,28 @@
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr">
         <is>
-          <t>ElcPdmpFr</t>
+          <t>TradFedExp</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>Electronic PDMP (fraction of year in 2017)</t>
+          <t>Traditional Medicaid Federal Spending</t>
         </is>
       </c>
       <c r="X162" t="inlineStr"/>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>KFF 2018, 2019</t>
         </is>
       </c>
       <c r="AA162" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Kaiser Family Foundation,  2018, 2019</t>
         </is>
       </c>
       <c r="AB162" t="inlineStr"/>
@@ -12762,7 +12842,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -12773,36 +12853,16 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr">
         <is>
           <t>x</t>
@@ -12814,28 +12874,28 @@
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr">
         <is>
-          <t>MsAcPdmpDt</t>
+          <t>TradSttExp</t>
         </is>
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>Must-Access PDMP start date</t>
+          <t>Traditional Medicaid State Spending</t>
         </is>
       </c>
       <c r="X163" t="inlineStr"/>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>KFF 2018, 2019</t>
         </is>
       </c>
       <c r="AA163" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Kaiser Family Foundation,  2018, 2019</t>
         </is>
       </c>
       <c r="AB163" t="inlineStr"/>
@@ -12850,7 +12910,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -12861,16 +12921,8 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr">
         <is>
           <t>x</t>
@@ -12891,39 +12943,35 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Q164" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr">
         <is>
-          <t>MsAcPdmpFr</t>
+          <t>WlfrExp</t>
         </is>
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>Must-Access PDMP (fraction of year in 2017)</t>
+          <t>Public welfare expenditures</t>
         </is>
       </c>
       <c r="X164" t="inlineStr"/>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>Survey of State and Local Government Finances 2018-2022</t>
         </is>
       </c>
       <c r="AA164" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AB164" t="inlineStr"/>
@@ -12933,12 +12981,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -12954,64 +13002,40 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr">
         <is>
-          <t>OpPdmpDt</t>
+          <t>A50_74Hcv</t>
         </is>
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>Operational PDMP start date</t>
+          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
         </is>
       </c>
       <c r="X165" t="inlineStr"/>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA165" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB165" t="inlineStr"/>
@@ -13021,22 +13045,38 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>x</t>
@@ -13067,39 +13107,35 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Q166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr">
         <is>
-          <t>OpPdmpFr</t>
+          <t>A50_74HcvD</t>
         </is>
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>Operational PDMP (fraction of year in 2017)</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old</t>
         </is>
       </c>
       <c r="X166" t="inlineStr"/>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB166" t="inlineStr"/>
@@ -13109,24 +13145,48 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M167" t="inlineStr">
         <is>
           <t>x</t>
@@ -13154,28 +13214,28 @@
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr">
         <is>
-          <t>CrrctExp</t>
+          <t>AmInHcvD</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>Corrections expenditures</t>
+          <t>Hepatitis C Deaths - American Indian</t>
         </is>
       </c>
       <c r="X167" t="inlineStr"/>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>Survey of State and Local Government Finances 2018-2022</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA167" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB167" t="inlineStr"/>
@@ -13185,12 +13245,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -13207,43 +13267,55 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr"/>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr">
         <is>
-          <t>ExpnFedExp</t>
+          <t>AsHcvD</t>
         </is>
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>Expansion Medicaid Federal Spending</t>
+          <t xml:space="preserve">Hepatitis C deaths among Asian populations </t>
         </is>
       </c>
       <c r="X168" t="inlineStr"/>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>KFF 2018, 2019</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA168" t="inlineStr">
         <is>
-          <t>Kaiser Family Foundation,  2018, 2019</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB168" t="inlineStr"/>
@@ -13253,65 +13325,77 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr">
         <is>
-          <t>ExpnSttExp</t>
+          <t>AsPiHcvD</t>
         </is>
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>Expansion Medicaid State Spending</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander</t>
         </is>
       </c>
       <c r="X169" t="inlineStr"/>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>KFF 2018, 2019</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr">
         <is>
-          <t>Kaiser Family Foundation,  2018, 2019</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB169" t="inlineStr"/>
@@ -13321,12 +13405,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -13337,23 +13421,15 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
           <t>x</t>
@@ -13366,28 +13442,28 @@
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr">
         <is>
-          <t>HlthExp</t>
+          <t>AvA50_74HcvD</t>
         </is>
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>Public health expenditures</t>
+          <t>Average Ages between 50 to 74 Hepitatis C virus Deaths</t>
         </is>
       </c>
       <c r="X170" t="inlineStr"/>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>Survey of State and Local Government Finances 2018-2022</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB170" t="inlineStr"/>
@@ -13397,12 +13473,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -13413,53 +13489,49 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr">
         <is>
-          <t>MedcdExp</t>
+          <t>AvAmInHcvD</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>Total Medicaid Spending</t>
+          <t>Hepatitis C Deaths - American Indian (5-Year Averages)</t>
         </is>
       </c>
       <c r="X171" t="inlineStr"/>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>KFF 2018, 2019</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA171" t="inlineStr">
         <is>
-          <t>Kaiser Family Foundation,  2018, 2019</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB171" t="inlineStr"/>
@@ -13469,12 +13541,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -13487,21 +13559,9 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
           <t>x</t>
@@ -13514,28 +13574,28 @@
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr">
         <is>
-          <t>PlcFyrExp</t>
+          <t>AvAsHcvD</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Police &amp; fire expenditures</t>
+          <t>Mean yearly Hepatitis C deaths among Asian population from 2018-2022</t>
         </is>
       </c>
       <c r="X172" t="inlineStr"/>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>Survey of State and Local Government Finances 2018-2022</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA172" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB172" t="inlineStr"/>
@@ -13545,12 +13605,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -13561,49 +13621,45 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr">
         <is>
-          <t>TradFedExp</t>
+          <t>AvAsPiHcvD</t>
         </is>
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>Traditional Medicaid Federal Spending</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013 - 2017)</t>
         </is>
       </c>
       <c r="X173" t="inlineStr"/>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>KFF 2018, 2019</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA173" t="inlineStr">
         <is>
-          <t>Kaiser Family Foundation,  2018, 2019</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB173" t="inlineStr"/>
@@ -13613,12 +13669,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -13629,49 +13685,49 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr">
         <is>
-          <t>TradSttExp</t>
+          <t>AvBlkHcvD</t>
         </is>
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>Traditional Medicaid State Spending</t>
+          <t>Hepatitis C Deaths - Black (5-Year Averages)</t>
         </is>
       </c>
       <c r="X174" t="inlineStr"/>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z174" t="inlineStr">
         <is>
-          <t>KFF 2018, 2019</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA174" t="inlineStr">
         <is>
-          <t>Kaiser Family Foundation,  2018, 2019</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB174" t="inlineStr"/>
@@ -13681,12 +13737,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -13697,23 +13753,15 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
           <t>x</t>
@@ -13726,28 +13774,28 @@
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr">
         <is>
-          <t>WlfrExp</t>
+          <t>AvFlHcvD</t>
         </is>
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>Public welfare expenditures</t>
+          <t>Hepatitis C Deaths - Women (5-Year Averages)</t>
         </is>
       </c>
       <c r="X175" t="inlineStr"/>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>Survey of State and Local Government Finances 2018-2022</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA175" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB175" t="inlineStr"/>
@@ -13782,7 +13830,11 @@
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="inlineStr"/>
@@ -13790,12 +13842,12 @@
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr">
         <is>
-          <t>A50_74Hcv</t>
+          <t>AvHcvD</t>
         </is>
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
+          <t>Average Hepitatis C virus Deaths (5-Year Averages)</t>
         </is>
       </c>
       <c r="X176" t="inlineStr"/>
@@ -13833,51 +13885,19 @@
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
           <t>x</t>
@@ -13890,12 +13910,12 @@
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr">
         <is>
-          <t>A50_74HcvD</t>
+          <t>AvHspHcvD</t>
         </is>
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old</t>
+          <t>Hepatitis C Deaths - Hispanic (5-Year Averages)</t>
         </is>
       </c>
       <c r="X177" t="inlineStr"/>
@@ -13933,51 +13953,19 @@
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr">
         <is>
           <t>x</t>
@@ -13990,12 +13978,12 @@
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr">
         <is>
-          <t>AmInHcvD</t>
+          <t>AvMlHcvD</t>
         </is>
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian</t>
+          <t>Hepatitis C Deaths - Men (5-Year Averages)</t>
         </is>
       </c>
       <c r="X178" t="inlineStr"/>
@@ -14038,26 +14026,10 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr">
         <is>
           <t>x</t>
@@ -14070,12 +14042,12 @@
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr">
         <is>
-          <t>AsHcvD</t>
+          <t>AvMulHcvD</t>
         </is>
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hepatitis C deaths among Asian populations </t>
+          <t>Mean yearly Hepatitis C deaths among Multiple Race populations from 2018-2022</t>
         </is>
       </c>
       <c r="X179" t="inlineStr"/>
@@ -14113,36 +14085,20 @@
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
@@ -14150,12 +14106,12 @@
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="inlineStr">
         <is>
-          <t>AsPiHcvD</t>
+          <t>AvNhPiHcvD</t>
         </is>
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander</t>
+          <t>Mean yearly Hepatitis C deaths among Native Hawaiian and Pacific Islanders population from 2018-2022</t>
         </is>
       </c>
       <c r="X180" t="inlineStr"/>
@@ -14218,12 +14174,12 @@
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr">
         <is>
-          <t>AvA50_74HcvD</t>
+          <t>AvO75HcvD</t>
         </is>
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>Average Ages between 50 to 74 Hepitatis C virus Deaths</t>
+          <t>Hepatitis C Deaths - Age Over 75  (5-Year Averages)</t>
         </is>
       </c>
       <c r="X181" t="inlineStr"/>
@@ -14286,12 +14242,12 @@
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr">
         <is>
-          <t>AvAmInHcvD</t>
+          <t>AvU50HcvD</t>
         </is>
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (5-Year Averages)</t>
+          <t>Hepatitis C Deaths - Age Under 50 (5-Year Averages)</t>
         </is>
       </c>
       <c r="X182" t="inlineStr"/>
@@ -14350,12 +14306,12 @@
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr">
         <is>
-          <t>AvAsHcvD</t>
+          <t>AvWhHcvD</t>
         </is>
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Asian population from 2018-2022</t>
+          <t>Average White Hepitatis C virus Deaths</t>
         </is>
       </c>
       <c r="X183" t="inlineStr"/>
@@ -14414,12 +14370,12 @@
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr">
         <is>
-          <t>AvAsPiHcvD</t>
+          <t>BlkHcv</t>
         </is>
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013 - 2017)</t>
+          <t>Yearly Hepatitis C cases - Black (2013-2016)</t>
         </is>
       </c>
       <c r="X184" t="inlineStr"/>
@@ -14457,19 +14413,51 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P185" t="inlineStr">
         <is>
           <t>x</t>
@@ -14482,12 +14470,12 @@
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr">
         <is>
-          <t>AvBlkHcvD</t>
+          <t>BlkHcvD</t>
         </is>
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (5-Year Averages)</t>
+          <t>Hepatitis C Deaths - Black</t>
         </is>
       </c>
       <c r="X185" t="inlineStr"/>
@@ -14525,19 +14513,51 @@
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P186" t="inlineStr">
         <is>
           <t>x</t>
@@ -14550,12 +14570,12 @@
       <c r="U186" t="inlineStr"/>
       <c r="V186" t="inlineStr">
         <is>
-          <t>AvFlHcvD</t>
+          <t>FlHcvD</t>
         </is>
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (5-Year Averages)</t>
+          <t>Hepatitis C Deaths - Women</t>
         </is>
       </c>
       <c r="X186" t="inlineStr"/>
@@ -14606,11 +14626,7 @@
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="inlineStr"/>
       <c r="S187" t="inlineStr"/>
@@ -14618,12 +14634,12 @@
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr">
         <is>
-          <t>AvHcvD</t>
+          <t>FmHcv</t>
         </is>
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>Average Hepitatis C virus Deaths (5-Year Averages)</t>
+          <t>Yearly Hepatitis C cases - Women (2013-2016)</t>
         </is>
       </c>
       <c r="X187" t="inlineStr"/>
@@ -14661,19 +14677,51 @@
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P188" t="inlineStr">
         <is>
           <t>x</t>
@@ -14686,12 +14734,12 @@
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr">
         <is>
-          <t>AvHspHcvD</t>
+          <t>HcvD</t>
         </is>
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (5-Year Averages)</t>
+          <t>Hepatitis C Deaths</t>
         </is>
       </c>
       <c r="X188" t="inlineStr"/>
@@ -14729,19 +14777,51 @@
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P189" t="inlineStr">
         <is>
           <t>x</t>
@@ -14754,12 +14834,12 @@
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr">
         <is>
-          <t>AvMlHcvD</t>
+          <t>HspHcvD</t>
         </is>
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (5-Year Averages)</t>
+          <t>Hepatitis C Deaths - Hispanic</t>
         </is>
       </c>
       <c r="X189" t="inlineStr"/>
@@ -14801,16 +14881,16 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P190" t="inlineStr"/>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="inlineStr"/>
@@ -14818,12 +14898,12 @@
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr">
         <is>
-          <t>AvMulHcvD</t>
+          <t>MlHcv</t>
         </is>
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Multiple Race populations from 2018-2022</t>
+          <t>Yearly Hepatitis C cases - Men (2013-2016)</t>
         </is>
       </c>
       <c r="X190" t="inlineStr"/>
@@ -14861,15 +14941,51 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P191" t="inlineStr">
         <is>
           <t>x</t>
@@ -14882,12 +14998,12 @@
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr">
         <is>
-          <t>AvNhPiHcvD</t>
+          <t>MlHcvD</t>
         </is>
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Native Hawaiian and Pacific Islanders population from 2018-2022</t>
+          <t>Hepatitis C Deaths - Men</t>
         </is>
       </c>
       <c r="X191" t="inlineStr"/>
@@ -14929,15 +15045,27 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P192" t="inlineStr">
         <is>
           <t>x</t>
@@ -14950,12 +15078,12 @@
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr">
         <is>
-          <t>AvO75HcvD</t>
+          <t>MulHcvD</t>
         </is>
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Over 75  (5-Year Averages)</t>
+          <t xml:space="preserve">Hepatitis C deaths among Multiple Race populations </t>
         </is>
       </c>
       <c r="X192" t="inlineStr"/>
@@ -14997,15 +15125,27 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
-      <c r="O193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P193" t="inlineStr">
         <is>
           <t>x</t>
@@ -15018,12 +15158,12 @@
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr">
         <is>
-          <t>AvU50HcvD</t>
+          <t>NhPiHcvD</t>
         </is>
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Under 50 (5-Year Averages)</t>
+          <t xml:space="preserve">Hepatitis C deaths among Native Hawaiian and Pacific Islander populations </t>
         </is>
       </c>
       <c r="X193" t="inlineStr"/>
@@ -15065,16 +15205,16 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="inlineStr"/>
       <c r="S194" t="inlineStr"/>
@@ -15082,12 +15222,12 @@
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr">
         <is>
-          <t>AvWhHcvD</t>
+          <t>NonBlkHcv</t>
         </is>
       </c>
       <c r="W194" t="inlineStr">
         <is>
-          <t>Average White Hepitatis C virus Deaths</t>
+          <t>Yearly Hepatitis C cases - non-Black (2013-2016)</t>
         </is>
       </c>
       <c r="X194" t="inlineStr"/>
@@ -15125,20 +15265,56 @@
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
@@ -15146,12 +15322,12 @@
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr">
         <is>
-          <t>BlkHcv</t>
+          <t>O75HcvD</t>
         </is>
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Black (2013-2016)</t>
+          <t>Hepatitis C Deaths - Over 75 years old</t>
         </is>
       </c>
       <c r="X195" t="inlineStr"/>
@@ -15189,56 +15365,20 @@
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
@@ -15246,12 +15386,12 @@
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr">
         <is>
-          <t>BlkHcvD</t>
+          <t>Ov75Hcv</t>
         </is>
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black</t>
+          <t>Yearly Hepatitis C cases - Over 75 years old (2013-2016)</t>
         </is>
       </c>
       <c r="X196" t="inlineStr"/>
@@ -15289,56 +15429,20 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="inlineStr"/>
@@ -15346,12 +15450,12 @@
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr">
         <is>
-          <t>FlHcvD</t>
+          <t>TotHcv</t>
         </is>
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women</t>
+          <t>Yearly Hepatitis C cases (2013-2016)</t>
         </is>
       </c>
       <c r="X197" t="inlineStr"/>
@@ -15389,20 +15493,56 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr"/>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="inlineStr"/>
@@ -15410,12 +15550,12 @@
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="inlineStr">
         <is>
-          <t>FmHcv</t>
+          <t>U50HcvD</t>
         </is>
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Women (2013-2016)</t>
+          <t>Hepatitis C Deaths - Under 50 years old</t>
         </is>
       </c>
       <c r="X198" t="inlineStr"/>
@@ -15453,56 +15593,20 @@
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M199" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O199" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P199" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
       <c r="Q199" t="inlineStr"/>
       <c r="R199" t="inlineStr"/>
       <c r="S199" t="inlineStr"/>
@@ -15510,12 +15614,12 @@
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr">
         <is>
-          <t>HcvD</t>
+          <t>Un50Hcv</t>
         </is>
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths</t>
+          <t>Yearly Hepatitis C cases - Under 50 years old (2013-2016)</t>
         </is>
       </c>
       <c r="X199" t="inlineStr"/>
@@ -15553,31 +15657,11 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>x</t>
@@ -15610,12 +15694,12 @@
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr">
         <is>
-          <t>HspHcvD</t>
+          <t>WhtHcvD</t>
         </is>
       </c>
       <c r="W200" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic</t>
+          <t>Hepatitis C deaths among White populations</t>
         </is>
       </c>
       <c r="X200" t="inlineStr"/>
@@ -15646,7 +15730,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -15654,19 +15738,51 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr"/>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q201" t="inlineStr"/>
       <c r="R201" t="inlineStr"/>
       <c r="S201" t="inlineStr"/>
@@ -15674,28 +15790,28 @@
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr">
         <is>
-          <t>MlHcv</t>
+          <t>OdMortRt</t>
         </is>
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Men (2013-2016)</t>
+          <t>Overdose Mortality Rate</t>
         </is>
       </c>
       <c r="X201" t="inlineStr"/>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA201" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB201" t="inlineStr"/>
@@ -15710,63 +15826,27 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
       <c r="Q202" t="inlineStr"/>
       <c r="R202" t="inlineStr"/>
       <c r="S202" t="inlineStr"/>
@@ -15774,28 +15854,28 @@
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr">
         <is>
-          <t>MlHcvD</t>
+          <t>OdMortRtAv</t>
         </is>
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men</t>
+          <t>Overdose Mortality Rate Average (2016-2020)</t>
         </is>
       </c>
       <c r="X202" t="inlineStr"/>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z202" t="inlineStr">
         <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA202" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB202" t="inlineStr"/>
@@ -15810,7 +15890,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -15822,26 +15902,14 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr">
         <is>
           <t>x</t>
@@ -15854,28 +15922,28 @@
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr">
         <is>
-          <t>MulHcvD</t>
+          <t>OpRxRt</t>
         </is>
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hepatitis C deaths among Multiple Race populations </t>
+          <t>Opioid Prescription Rate</t>
         </is>
       </c>
       <c r="X203" t="inlineStr"/>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z203" t="inlineStr">
         <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA203" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB203" t="inlineStr"/>
@@ -15890,7 +15958,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -15902,26 +15970,14 @@
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M204" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O204" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr">
         <is>
           <t>x</t>
@@ -15934,865 +15990,33 @@
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr">
         <is>
-          <t>NhPiHcvD</t>
+          <t>PrMsuseP</t>
         </is>
       </c>
       <c r="W204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hepatitis C deaths among Native Hawaiian and Pacific Islander populations </t>
+          <t>% Self-Report Misuse of Prescription Pain Medication (2020)</t>
         </is>
       </c>
       <c r="X204" t="inlineStr"/>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
       <c r="Z204" t="inlineStr">
         <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
+          <t>HepVu 2014-2022</t>
         </is>
       </c>
       <c r="AA204" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
         </is>
       </c>
       <c r="AB204" t="inlineStr"/>
       <c r="AC204" t="inlineStr"/>
       <c r="AD204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Hepatitis C Rates</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="inlineStr"/>
-      <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="inlineStr"/>
-      <c r="T205" t="inlineStr"/>
-      <c r="U205" t="inlineStr"/>
-      <c r="V205" t="inlineStr">
-        <is>
-          <t>NonBlkHcv</t>
-        </is>
-      </c>
-      <c r="W205" t="inlineStr">
-        <is>
-          <t>Yearly Hepatitis C cases - non-Black (2013-2016)</t>
-        </is>
-      </c>
-      <c r="X205" t="inlineStr"/>
-      <c r="Y205" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
-        </is>
-      </c>
-      <c r="Z205" t="inlineStr">
-        <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
-        </is>
-      </c>
-      <c r="AA205" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
-        </is>
-      </c>
-      <c r="AB205" t="inlineStr"/>
-      <c r="AC205" t="inlineStr"/>
-      <c r="AD205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Hepatitis C Rates</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P206" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="inlineStr"/>
-      <c r="T206" t="inlineStr"/>
-      <c r="U206" t="inlineStr"/>
-      <c r="V206" t="inlineStr">
-        <is>
-          <t>O75HcvD</t>
-        </is>
-      </c>
-      <c r="W206" t="inlineStr">
-        <is>
-          <t>Hepatitis C Deaths - Over 75 years old</t>
-        </is>
-      </c>
-      <c r="X206" t="inlineStr"/>
-      <c r="Y206" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
-        </is>
-      </c>
-      <c r="Z206" t="inlineStr">
-        <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
-        </is>
-      </c>
-      <c r="AA206" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
-        </is>
-      </c>
-      <c r="AB206" t="inlineStr"/>
-      <c r="AC206" t="inlineStr"/>
-      <c r="AD206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Hepatitis C Rates</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="inlineStr"/>
-      <c r="T207" t="inlineStr"/>
-      <c r="U207" t="inlineStr"/>
-      <c r="V207" t="inlineStr">
-        <is>
-          <t>Ov75Hcv</t>
-        </is>
-      </c>
-      <c r="W207" t="inlineStr">
-        <is>
-          <t>Yearly Hepatitis C cases - Over 75 years old (2013-2016)</t>
-        </is>
-      </c>
-      <c r="X207" t="inlineStr"/>
-      <c r="Y207" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
-        </is>
-      </c>
-      <c r="Z207" t="inlineStr">
-        <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
-        </is>
-      </c>
-      <c r="AA207" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
-        </is>
-      </c>
-      <c r="AB207" t="inlineStr"/>
-      <c r="AC207" t="inlineStr"/>
-      <c r="AD207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Hepatitis C Rates</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="inlineStr"/>
-      <c r="T208" t="inlineStr"/>
-      <c r="U208" t="inlineStr"/>
-      <c r="V208" t="inlineStr">
-        <is>
-          <t>TotHcv</t>
-        </is>
-      </c>
-      <c r="W208" t="inlineStr">
-        <is>
-          <t>Yearly Hepatitis C cases (2013-2016)</t>
-        </is>
-      </c>
-      <c r="X208" t="inlineStr"/>
-      <c r="Y208" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
-        </is>
-      </c>
-      <c r="Z208" t="inlineStr">
-        <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
-        </is>
-      </c>
-      <c r="AA208" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
-        </is>
-      </c>
-      <c r="AB208" t="inlineStr"/>
-      <c r="AC208" t="inlineStr"/>
-      <c r="AD208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Hepatitis C Rates</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P209" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="inlineStr"/>
-      <c r="T209" t="inlineStr"/>
-      <c r="U209" t="inlineStr"/>
-      <c r="V209" t="inlineStr">
-        <is>
-          <t>U50HcvD</t>
-        </is>
-      </c>
-      <c r="W209" t="inlineStr">
-        <is>
-          <t>Hepatitis C Deaths - Under 50 years old</t>
-        </is>
-      </c>
-      <c r="X209" t="inlineStr"/>
-      <c r="Y209" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
-        </is>
-      </c>
-      <c r="Z209" t="inlineStr">
-        <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
-        </is>
-      </c>
-      <c r="AA209" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
-        </is>
-      </c>
-      <c r="AB209" t="inlineStr"/>
-      <c r="AC209" t="inlineStr"/>
-      <c r="AD209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Hepatitis C Rates</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr"/>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="inlineStr"/>
-      <c r="T210" t="inlineStr"/>
-      <c r="U210" t="inlineStr"/>
-      <c r="V210" t="inlineStr">
-        <is>
-          <t>Un50Hcv</t>
-        </is>
-      </c>
-      <c r="W210" t="inlineStr">
-        <is>
-          <t>Yearly Hepatitis C cases - Under 50 years old (2013-2016)</t>
-        </is>
-      </c>
-      <c r="X210" t="inlineStr"/>
-      <c r="Y210" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
-        </is>
-      </c>
-      <c r="Z210" t="inlineStr">
-        <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
-        </is>
-      </c>
-      <c r="AA210" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
-        </is>
-      </c>
-      <c r="AB210" t="inlineStr"/>
-      <c r="AC210" t="inlineStr"/>
-      <c r="AD210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Hepatitis C Rates</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M211" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N211" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O211" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P211" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="inlineStr"/>
-      <c r="T211" t="inlineStr"/>
-      <c r="U211" t="inlineStr"/>
-      <c r="V211" t="inlineStr">
-        <is>
-          <t>WhtHcvD</t>
-        </is>
-      </c>
-      <c r="W211" t="inlineStr">
-        <is>
-          <t>Hepatitis C deaths among White populations</t>
-        </is>
-      </c>
-      <c r="X211" t="inlineStr"/>
-      <c r="Y211" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
-        </is>
-      </c>
-      <c r="Z211" t="inlineStr">
-        <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
-        </is>
-      </c>
-      <c r="AA211" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
-        </is>
-      </c>
-      <c r="AB211" t="inlineStr"/>
-      <c r="AC211" t="inlineStr"/>
-      <c r="AD211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P212" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="inlineStr"/>
-      <c r="T212" t="inlineStr"/>
-      <c r="U212" t="inlineStr"/>
-      <c r="V212" t="inlineStr">
-        <is>
-          <t>OdMortRt</t>
-        </is>
-      </c>
-      <c r="W212" t="inlineStr">
-        <is>
-          <t>Overdose Mortality Rate</t>
-        </is>
-      </c>
-      <c r="X212" t="inlineStr"/>
-      <c r="Y212" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z212" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA212" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB212" t="inlineStr"/>
-      <c r="AC212" t="inlineStr"/>
-      <c r="AD212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="inlineStr"/>
-      <c r="T213" t="inlineStr"/>
-      <c r="U213" t="inlineStr"/>
-      <c r="V213" t="inlineStr">
-        <is>
-          <t>OdMortRtAv</t>
-        </is>
-      </c>
-      <c r="W213" t="inlineStr">
-        <is>
-          <t>Overdose Mortality Rate Average (2016-2020)</t>
-        </is>
-      </c>
-      <c r="X213" t="inlineStr"/>
-      <c r="Y213" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z213" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA213" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB213" t="inlineStr"/>
-      <c r="AC213" t="inlineStr"/>
-      <c r="AD213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="inlineStr"/>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="inlineStr"/>
-      <c r="T214" t="inlineStr"/>
-      <c r="U214" t="inlineStr"/>
-      <c r="V214" t="inlineStr">
-        <is>
-          <t>OpRxRt</t>
-        </is>
-      </c>
-      <c r="W214" t="inlineStr">
-        <is>
-          <t>Opioid Prescription Rate</t>
-        </is>
-      </c>
-      <c r="X214" t="inlineStr"/>
-      <c r="Y214" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z214" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA214" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB214" t="inlineStr"/>
-      <c r="AC214" t="inlineStr"/>
-      <c r="AD214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Opioid Indicators</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="inlineStr"/>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="inlineStr"/>
-      <c r="T215" t="inlineStr"/>
-      <c r="U215" t="inlineStr"/>
-      <c r="V215" t="inlineStr">
-        <is>
-          <t>PrMsuseP</t>
-        </is>
-      </c>
-      <c r="W215" t="inlineStr">
-        <is>
-          <t>% Self-Report Misuse of Prescription Pain Medication (2020)</t>
-        </is>
-      </c>
-      <c r="X215" t="inlineStr"/>
-      <c r="Y215" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
-        </is>
-      </c>
-      <c r="Z215" t="inlineStr">
-        <is>
-          <t>HepVu 2014-2022</t>
-        </is>
-      </c>
-      <c r="AA215" t="inlineStr">
-        <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
-        </is>
-      </c>
-      <c r="AB215" t="inlineStr"/>
-      <c r="AC215" t="inlineStr"/>
-      <c r="AD215" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/src/reference/data-dictionaries/S_Dict.xlsx
+++ b/docs/src/reference/data-dictionaries/S_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD204"/>
+  <dimension ref="A1:AD209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10178,7 +10178,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Buprenorphine Policy Proportion</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -10189,57 +10189,49 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr">
         <is>
-          <t>AnyGslDt</t>
+          <t>BupPolP</t>
         </is>
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Any Good Samaritan Law (date)</t>
+          <t>Buprenorphine Policy Proportion</t>
         </is>
       </c>
       <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/medicaid_variables_saket/metadata/Bup_Policy_Proportion.md</t>
         </is>
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>OPTIC 2017, 2019, 2020, 2021</t>
+          <t>CPHLR 2025</t>
         </is>
       </c>
       <c r="AA129" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
+          <t>Center for Public Health Law Research &amp; Vital Strategies</t>
         </is>
       </c>
       <c r="AB129" t="inlineStr"/>
@@ -10254,7 +10246,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Buprenorphine Policy Proportion</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -10265,57 +10257,49 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr">
         <is>
-          <t>AnyGslFr</t>
+          <t>EdBupPolP</t>
         </is>
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>Any Good Samaritan Law (fraction of year in 2018)</t>
+          <t>Entire Data Period Buprenorphine Policy Proportion</t>
         </is>
       </c>
       <c r="X130" t="inlineStr"/>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/medicaid_variables_saket/metadata/Bup_Policy_Proportion.md</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>OPTIC 2017, 2019, 2020, 2021</t>
+          <t>CPHLR 2025</t>
         </is>
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
+          <t>Center for Public Health Law Research &amp; Vital Strategies</t>
         </is>
       </c>
       <c r="AB130" t="inlineStr"/>
@@ -10330,7 +10314,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Buprenorphine Policy Proportion</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -10341,65 +10325,49 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr">
         <is>
-          <t>AnyNalxDt</t>
+          <t>PerImpBupP</t>
         </is>
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>Any Naloxone Law (date)</t>
+          <t>Periods of Buprenorphine Policy Implementation</t>
         </is>
       </c>
       <c r="X131" t="inlineStr"/>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/medicaid_variables_saket/metadata/Bup_Policy_Proportion.md</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>CPHLR 2025</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Center for Public Health Law Research &amp; Vital Strategies</t>
         </is>
       </c>
       <c r="AB131" t="inlineStr"/>
@@ -10430,11 +10398,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
           <t>x</t>
@@ -10450,11 +10414,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="inlineStr"/>
@@ -10462,28 +10422,28 @@
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>AnyNalxFr</t>
+          <t>AnyGslDt</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing distribution through a standing or order (fraction of year in 2017)</t>
+          <t>Any Good Samaritan Law (date)</t>
         </is>
       </c>
       <c r="X132" t="inlineStr"/>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>OPTIC 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AB132" t="inlineStr"/>
@@ -10509,15 +10469,27 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
@@ -10526,28 +10498,28 @@
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr">
         <is>
-          <t>ExpSsp</t>
+          <t>AnyGslFr</t>
         </is>
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>Syringe Service Program (SSP) Authorization Laws</t>
+          <t>Any Good Samaritan Law (fraction of year in 2018)</t>
         </is>
       </c>
       <c r="X133" t="inlineStr"/>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
         </is>
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AB133" t="inlineStr"/>
@@ -10578,7 +10550,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M134" t="inlineStr">
         <is>
           <t>x</t>
@@ -10594,7 +10570,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="P134" t="inlineStr"/>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
       <c r="S134" t="inlineStr"/>
@@ -10602,28 +10582,28 @@
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr">
         <is>
-          <t>GslArrDt</t>
+          <t>AnyNalxDt</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>Good Samaritan Law Protecting Arrest (date)</t>
+          <t>Any Naloxone Law (date)</t>
         </is>
       </c>
       <c r="X134" t="inlineStr"/>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>OPTIC 2017, 2019, 2020, 2021</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB134" t="inlineStr"/>
@@ -10654,7 +10634,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M135" t="inlineStr">
         <is>
           <t>x</t>
@@ -10670,7 +10654,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="P135" t="inlineStr"/>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="inlineStr"/>
@@ -10678,28 +10666,28 @@
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr">
         <is>
-          <t>GslArrFr</t>
+          <t>AnyNalxFr</t>
         </is>
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>Good Samaritan Law Protecting Arrest (fraction of year in 2018)</t>
+          <t>Naloxone Law allowing distribution through a standing or order (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X135" t="inlineStr"/>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>OPTIC 2017, 2019, 2020, 2021</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr"/>
@@ -10725,36 +10713,16 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="inlineStr"/>
@@ -10762,28 +10730,28 @@
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr">
         <is>
-          <t>NalxPrStDt</t>
+          <t>ExpSsp</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing distribution through a standing or order (date)</t>
+          <t>Syringe Service Program (SSP) Authorization Laws</t>
         </is>
       </c>
       <c r="X136" t="inlineStr"/>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr"/>
@@ -10814,11 +10782,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
           <t>x</t>
@@ -10834,11 +10798,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="inlineStr"/>
@@ -10846,28 +10806,28 @@
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr">
         <is>
-          <t>NalxPrStFr</t>
+          <t>GslArrDt</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>Naloxone Law in Effect (fraction of year in 2017)</t>
+          <t>Good Samaritan Law Protecting Arrest (date)</t>
         </is>
       </c>
       <c r="X137" t="inlineStr"/>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>OPTIC 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr"/>
@@ -10898,11 +10858,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
           <t>x</t>
@@ -10918,11 +10874,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
       <c r="S138" t="inlineStr"/>
@@ -10930,28 +10882,28 @@
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr">
         <is>
-          <t>NalxPresDt</t>
+          <t>GslArrFr</t>
         </is>
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing pharmacists prescriptive authority (date)</t>
+          <t>Good Samaritan Law Protecting Arrest (fraction of year in 2018)</t>
         </is>
       </c>
       <c r="X138" t="inlineStr"/>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>OPTIC 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AA138" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017, 2019, 2020, 2021</t>
         </is>
       </c>
       <c r="AB138" t="inlineStr"/>
@@ -11014,12 +10966,12 @@
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr">
         <is>
-          <t>NalxPresFr</t>
+          <t>NalxPrStDt</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing pharmacists prescriptive authority (fraction of year in 2017)</t>
+          <t>Naloxone Law allowing distribution through a standing or order (date)</t>
         </is>
       </c>
       <c r="X139" t="inlineStr"/>
@@ -11061,16 +11013,36 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M140" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="inlineStr"/>
@@ -11078,28 +11050,28 @@
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr">
         <is>
-          <t>NoLwRmUnc</t>
+          <t>NalxPrStFr</t>
         </is>
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>Laws removing barriers to SSPs</t>
+          <t>Naloxone Law in Effect (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA140" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB140" t="inlineStr"/>
@@ -11125,16 +11097,36 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M141" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="inlineStr"/>
@@ -11142,28 +11134,28 @@
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr">
         <is>
-          <t>NoPrphLw</t>
+          <t>NalxPresDt</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>Drug Paraphernalia Laws</t>
+          <t>Naloxone Law allowing pharmacists prescriptive authority (date)</t>
         </is>
       </c>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB141" t="inlineStr"/>
@@ -11189,16 +11181,36 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M142" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="inlineStr"/>
@@ -11206,28 +11218,28 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr">
         <is>
-          <t>NtPrFrDsSy</t>
+          <t>NalxPresFr</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>Distribution of Syringes Laws</t>
+          <t>Naloxone Law allowing pharmacists prescriptive authority (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>LawAtlas 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB142" t="inlineStr"/>
@@ -11270,12 +11282,12 @@
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr">
         <is>
-          <t>PrExcInj</t>
+          <t>NoLwRmUnc</t>
         </is>
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>Paraphernalia exludes objects used for injecting drugs</t>
+          <t>Laws removing barriers to SSPs</t>
         </is>
       </c>
       <c r="X143" t="inlineStr"/>
@@ -11334,12 +11346,12 @@
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr">
         <is>
-          <t>PrNtRefInj</t>
+          <t>NoPrphLw</t>
         </is>
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>Paraphernalia does not refer to objects used for injecting drugs</t>
+          <t>Drug Paraphernalia Laws</t>
         </is>
       </c>
       <c r="X144" t="inlineStr"/>
@@ -11370,7 +11382,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Marijuana Policies</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -11381,69 +11393,45 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q145" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr">
         <is>
-          <t>MdMarijLaw</t>
+          <t>NtPrFrDsSy</t>
         </is>
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laws authorizing medical marijuana use </t>
+          <t>Distribution of Syringes Laws</t>
         </is>
       </c>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Marijuana_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>PDAPS 2017</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA145" t="inlineStr">
         <is>
-          <t>Prescription Drug Abuse Policy System, Medical Marijuana Caregiver Rules, 2017</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB145" t="inlineStr"/>
@@ -11458,7 +11446,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -11469,69 +11457,45 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q146" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr">
         <is>
-          <t>AnyPdmpDt</t>
+          <t>PrExcInj</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Any PDMP start date</t>
+          <t>Paraphernalia exludes objects used for injecting drugs</t>
         </is>
       </c>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB146" t="inlineStr"/>
@@ -11546,7 +11510,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -11557,69 +11521,45 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr">
         <is>
-          <t>AnyPdmpFr</t>
+          <t>PrNtRefInj</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>Any PDMP (fraction of year in 2017)</t>
+          <t>Paraphernalia does not refer to objects used for injecting drugs</t>
         </is>
       </c>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>LawAtlas 2019</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="AB147" t="inlineStr"/>
@@ -11634,7 +11574,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Marijuana Policies</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -11686,28 +11626,28 @@
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr">
         <is>
-          <t>AnyPdmphDt</t>
+          <t>MdMarijLaw</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Any Horowitz PDMP start date</t>
+          <t xml:space="preserve">Laws authorizing medical marijuana use </t>
         </is>
       </c>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Marijuana_Laws.md</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>PDAPS 2017</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>Prescription Drug Abuse Policy System, Medical Marijuana Caregiver Rules, 2017</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr"/>
@@ -11722,7 +11662,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Medicaid Policy Proportion</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -11733,69 +11673,49 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q149" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr">
         <is>
-          <t>AnyPdmphFr</t>
+          <t>MedPolP5Yr</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>Any Horowitz PDMP (fraction of year in 2017)</t>
+          <t>Five-Year Medicaid Expansion Proportion</t>
         </is>
       </c>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/medicaid_variables_saket/metadata/Medicaid_Policy_Proportion.md</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>KFF 2025</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>KFF (Status of State Action on Medicaid Expansion Decision) 2025</t>
         </is>
       </c>
       <c r="AB149" t="inlineStr"/>
@@ -11810,7 +11730,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Medicaid Policy Proportion</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -11818,9 +11738,21 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>x</t>
@@ -11856,34 +11788,38 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R150" t="inlineStr"/>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr">
         <is>
-          <t>ElcPdmpDt</t>
+          <t>MedPolProp</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>Electronic PDMP start date</t>
+          <t>Medicaid Expansion Proportion</t>
         </is>
       </c>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/medicaid_variables_saket/metadata/Medicaid_Policy_Proportion.md</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>OPTIC 2017-2022</t>
+          <t>KFF 2025</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
+          <t>KFF (Status of State Action on Medicaid Expansion Decision) 2025</t>
         </is>
       </c>
       <c r="AB150" t="inlineStr"/>
@@ -11950,12 +11886,12 @@
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr">
         <is>
-          <t>ElcPdmpFr</t>
+          <t>AnyPdmpDt</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Electronic PDMP (fraction of year in 2017)</t>
+          <t>Any PDMP start date</t>
         </is>
       </c>
       <c r="X151" t="inlineStr"/>
@@ -12038,12 +11974,12 @@
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr">
         <is>
-          <t>MsAcPdmpDt</t>
+          <t>AnyPdmpFr</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Must-Access PDMP start date</t>
+          <t>Any PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X152" t="inlineStr"/>
@@ -12126,12 +12062,12 @@
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr">
         <is>
-          <t>MsAcPdmpFr</t>
+          <t>AnyPdmphDt</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Must-Access PDMP (fraction of year in 2017)</t>
+          <t>Any Horowitz PDMP start date</t>
         </is>
       </c>
       <c r="X153" t="inlineStr"/>
@@ -12214,12 +12150,12 @@
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr">
         <is>
-          <t>OpPdmpDt</t>
+          <t>AnyPdmphFr</t>
         </is>
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>Operational PDMP start date</t>
+          <t>Any Horowitz PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X154" t="inlineStr"/>
@@ -12302,12 +12238,12 @@
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr">
         <is>
-          <t>OpPdmpFr</t>
+          <t>ElcPdmpDt</t>
         </is>
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>Operational PDMP (fraction of year in 2017)</t>
+          <t>Electronic PDMP start date</t>
         </is>
       </c>
       <c r="X155" t="inlineStr"/>
@@ -12338,7 +12274,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -12349,8 +12285,16 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M156" t="inlineStr">
         <is>
           <t>x</t>
@@ -12371,35 +12315,39 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Q156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr">
         <is>
-          <t>CrrctExp</t>
+          <t>ElcPdmpFr</t>
         </is>
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>Corrections expenditures</t>
+          <t>Electronic PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>Survey of State and Local Government Finances 2018-2022</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB156" t="inlineStr"/>
@@ -12414,7 +12362,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -12425,16 +12373,36 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q157" t="inlineStr">
         <is>
           <t>x</t>
@@ -12446,28 +12414,28 @@
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr">
         <is>
-          <t>ExpnFedExp</t>
+          <t>MsAcPdmpDt</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>Expansion Medicaid Federal Spending</t>
+          <t>Must-Access PDMP start date</t>
         </is>
       </c>
       <c r="X157" t="inlineStr"/>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>KFF 2018, 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>Kaiser Family Foundation,  2018, 2019</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB157" t="inlineStr"/>
@@ -12482,7 +12450,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -12493,16 +12461,36 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q158" t="inlineStr">
         <is>
           <t>x</t>
@@ -12514,28 +12502,28 @@
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr">
         <is>
-          <t>ExpnSttExp</t>
+          <t>MsAcPdmpFr</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>Expansion Medicaid State Spending</t>
+          <t>Must-Access PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X158" t="inlineStr"/>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>KFF 2018, 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA158" t="inlineStr">
         <is>
-          <t>Kaiser Family Foundation,  2018, 2019</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB158" t="inlineStr"/>
@@ -12550,7 +12538,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -12561,8 +12549,16 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M159" t="inlineStr">
         <is>
           <t>x</t>
@@ -12583,35 +12579,39 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Q159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr">
         <is>
-          <t>HlthExp</t>
+          <t>OpPdmpDt</t>
         </is>
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>Public health expenditures</t>
+          <t>Operational PDMP start date</t>
         </is>
       </c>
       <c r="X159" t="inlineStr"/>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>Survey of State and Local Government Finances 2018-2022</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA159" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB159" t="inlineStr"/>
@@ -12626,7 +12626,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -12637,7 +12637,11 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>x</t>
@@ -12648,9 +12652,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q160" t="inlineStr">
         <is>
           <t>x</t>
@@ -12662,28 +12678,28 @@
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr">
         <is>
-          <t>MedcdExp</t>
+          <t>OpPdmpFr</t>
         </is>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>Total Medicaid Spending</t>
+          <t>Operational PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="X160" t="inlineStr"/>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>KFF 2018, 2019</t>
+          <t>OPTIC 2017-2022</t>
         </is>
       </c>
       <c r="AA160" t="inlineStr">
         <is>
-          <t>Kaiser Family Foundation,  2018, 2019</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2017-2022</t>
         </is>
       </c>
       <c r="AB160" t="inlineStr"/>
@@ -12738,12 +12754,12 @@
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr">
         <is>
-          <t>PlcFyrExp</t>
+          <t>CrrctExp</t>
         </is>
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>Police &amp; fire expenditures</t>
+          <t>Corrections expenditures</t>
         </is>
       </c>
       <c r="X161" t="inlineStr"/>
@@ -12806,12 +12822,12 @@
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr">
         <is>
-          <t>TradFedExp</t>
+          <t>ExpnFedExp</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>Traditional Medicaid Federal Spending</t>
+          <t>Expansion Medicaid Federal Spending</t>
         </is>
       </c>
       <c r="X162" t="inlineStr"/>
@@ -12874,12 +12890,12 @@
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr">
         <is>
-          <t>TradSttExp</t>
+          <t>ExpnSttExp</t>
         </is>
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>Traditional Medicaid State Spending</t>
+          <t>Expansion Medicaid State Spending</t>
         </is>
       </c>
       <c r="X163" t="inlineStr"/>
@@ -12950,12 +12966,12 @@
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr">
         <is>
-          <t>WlfrExp</t>
+          <t>HlthExp</t>
         </is>
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>Public welfare expenditures</t>
+          <t>Public health expenditures</t>
         </is>
       </c>
       <c r="X164" t="inlineStr"/>
@@ -12981,12 +12997,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -12997,45 +13013,53 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr">
         <is>
-          <t>A50_74Hcv</t>
+          <t>MedcdExp</t>
         </is>
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
+          <t>Total Medicaid Spending</t>
         </is>
       </c>
       <c r="X165" t="inlineStr"/>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
+          <t>KFF 2018, 2019</t>
         </is>
       </c>
       <c r="AA165" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+          <t>Kaiser Family Foundation,  2018, 2019</t>
         </is>
       </c>
       <c r="AB165" t="inlineStr"/>
@@ -13045,48 +13069,24 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr">
         <is>
           <t>x</t>
@@ -13114,28 +13114,28 @@
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr">
         <is>
-          <t>A50_74HcvD</t>
+          <t>PlcFyrExp</t>
         </is>
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old</t>
+          <t>Police &amp; fire expenditures</t>
         </is>
       </c>
       <c r="X166" t="inlineStr"/>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
+          <t>Survey of State and Local Government Finances 2018-2022</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AB166" t="inlineStr"/>
@@ -13145,97 +13145,65 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr">
         <is>
-          <t>AmInHcvD</t>
+          <t>TradFedExp</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian</t>
+          <t>Traditional Medicaid Federal Spending</t>
         </is>
       </c>
       <c r="X167" t="inlineStr"/>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
+          <t>KFF 2018, 2019</t>
         </is>
       </c>
       <c r="AA167" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+          <t>Kaiser Family Foundation,  2018, 2019</t>
         </is>
       </c>
       <c r="AB167" t="inlineStr"/>
@@ -13245,12 +13213,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -13267,55 +13235,43 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P168" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr">
         <is>
-          <t>AsHcvD</t>
+          <t>TradSttExp</t>
         </is>
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hepatitis C deaths among Asian populations </t>
+          <t>Traditional Medicaid State Spending</t>
         </is>
       </c>
       <c r="X168" t="inlineStr"/>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
+          <t>KFF 2018, 2019</t>
         </is>
       </c>
       <c r="AA168" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+          <t>Kaiser Family Foundation,  2018, 2019</t>
         </is>
       </c>
       <c r="AB168" t="inlineStr"/>
@@ -13325,48 +13281,44 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
@@ -13374,28 +13326,28 @@
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr">
         <is>
-          <t>AsPiHcvD</t>
+          <t>WlfrExp</t>
         </is>
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander</t>
+          <t>Public welfare expenditures</t>
         </is>
       </c>
       <c r="X169" t="inlineStr"/>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>HepVu 2013-2016, 2018-2022</t>
+          <t>Survey of State and Local Government Finances 2018-2022</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AB169" t="inlineStr"/>
@@ -13430,11 +13382,7 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
@@ -13442,12 +13390,12 @@
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr">
         <is>
-          <t>AvA50_74HcvD</t>
+          <t>A50_74Hcv</t>
         </is>
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>Average Ages between 50 to 74 Hepitatis C virus Deaths</t>
+          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
         </is>
       </c>
       <c r="X170" t="inlineStr"/>
@@ -13485,19 +13433,51 @@
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P171" t="inlineStr">
         <is>
           <t>x</t>
@@ -13510,12 +13490,12 @@
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr">
         <is>
-          <t>AvAmInHcvD</t>
+          <t>A50_74HcvD</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (5-Year Averages)</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old</t>
         </is>
       </c>
       <c r="X171" t="inlineStr"/>
@@ -13553,15 +13533,51 @@
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr"/>
-      <c r="O172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P172" t="inlineStr">
         <is>
           <t>x</t>
@@ -13574,12 +13590,12 @@
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr">
         <is>
-          <t>AvAsHcvD</t>
+          <t>AmInHcvD</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Asian population from 2018-2022</t>
+          <t>Hepatitis C Deaths - American Indian</t>
         </is>
       </c>
       <c r="X172" t="inlineStr"/>
@@ -13621,16 +13637,32 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="inlineStr"/>
@@ -13638,12 +13670,12 @@
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr">
         <is>
-          <t>AvAsPiHcvD</t>
+          <t>AsHcvD</t>
         </is>
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013 - 2017)</t>
+          <t xml:space="preserve">Hepatitis C deaths among Asian populations </t>
         </is>
       </c>
       <c r="X173" t="inlineStr"/>
@@ -13681,10 +13713,26 @@
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>x</t>
@@ -13694,11 +13742,7 @@
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="inlineStr"/>
@@ -13706,12 +13750,12 @@
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr">
         <is>
-          <t>AvBlkHcvD</t>
+          <t>AsPiHcvD</t>
         </is>
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (5-Year Averages)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander</t>
         </is>
       </c>
       <c r="X174" t="inlineStr"/>
@@ -13774,12 +13818,12 @@
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr">
         <is>
-          <t>AvFlHcvD</t>
+          <t>AvA50_74HcvD</t>
         </is>
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (5-Year Averages)</t>
+          <t>Average Ages between 50 to 74 Hepitatis C virus Deaths</t>
         </is>
       </c>
       <c r="X175" t="inlineStr"/>
@@ -13842,12 +13886,12 @@
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr">
         <is>
-          <t>AvHcvD</t>
+          <t>AvAmInHcvD</t>
         </is>
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>Average Hepitatis C virus Deaths (5-Year Averages)</t>
+          <t>Hepatitis C Deaths - American Indian (5-Year Averages)</t>
         </is>
       </c>
       <c r="X176" t="inlineStr"/>
@@ -13889,11 +13933,7 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
@@ -13910,12 +13950,12 @@
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr">
         <is>
-          <t>AvHspHcvD</t>
+          <t>AvAsHcvD</t>
         </is>
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (5-Year Averages)</t>
+          <t>Mean yearly Hepatitis C deaths among Asian population from 2018-2022</t>
         </is>
       </c>
       <c r="X177" t="inlineStr"/>
@@ -13966,11 +14006,7 @@
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="inlineStr"/>
@@ -13978,12 +14014,12 @@
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr">
         <is>
-          <t>AvMlHcvD</t>
+          <t>AvAsPiHcvD</t>
         </is>
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (5-Year Averages)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013 - 2017)</t>
         </is>
       </c>
       <c r="X178" t="inlineStr"/>
@@ -14025,7 +14061,11 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr"/>
@@ -14042,12 +14082,12 @@
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr">
         <is>
-          <t>AvMulHcvD</t>
+          <t>AvBlkHcvD</t>
         </is>
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Multiple Race populations from 2018-2022</t>
+          <t>Hepatitis C Deaths - Black (5-Year Averages)</t>
         </is>
       </c>
       <c r="X179" t="inlineStr"/>
@@ -14089,7 +14129,11 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
@@ -14106,12 +14150,12 @@
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="inlineStr">
         <is>
-          <t>AvNhPiHcvD</t>
+          <t>AvFlHcvD</t>
         </is>
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Native Hawaiian and Pacific Islanders population from 2018-2022</t>
+          <t>Hepatitis C Deaths - Women (5-Year Averages)</t>
         </is>
       </c>
       <c r="X180" t="inlineStr"/>
@@ -14174,12 +14218,12 @@
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr">
         <is>
-          <t>AvO75HcvD</t>
+          <t>AvHcvD</t>
         </is>
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Over 75  (5-Year Averages)</t>
+          <t>Average Hepitatis C virus Deaths (5-Year Averages)</t>
         </is>
       </c>
       <c r="X181" t="inlineStr"/>
@@ -14242,12 +14286,12 @@
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr">
         <is>
-          <t>AvU50HcvD</t>
+          <t>AvHspHcvD</t>
         </is>
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Under 50 (5-Year Averages)</t>
+          <t>Hepatitis C Deaths - Hispanic (5-Year Averages)</t>
         </is>
       </c>
       <c r="X182" t="inlineStr"/>
@@ -14289,7 +14333,11 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
@@ -14306,12 +14354,12 @@
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr">
         <is>
-          <t>AvWhHcvD</t>
+          <t>AvMlHcvD</t>
         </is>
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Average White Hepitatis C virus Deaths</t>
+          <t>Hepatitis C Deaths - Men (5-Year Averages)</t>
         </is>
       </c>
       <c r="X183" t="inlineStr"/>
@@ -14353,16 +14401,16 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
@@ -14370,12 +14418,12 @@
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr">
         <is>
-          <t>BlkHcv</t>
+          <t>AvMulHcvD</t>
         </is>
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Black (2013-2016)</t>
+          <t>Mean yearly Hepatitis C deaths among Multiple Race populations from 2018-2022</t>
         </is>
       </c>
       <c r="X184" t="inlineStr"/>
@@ -14413,51 +14461,15 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr">
         <is>
           <t>x</t>
@@ -14470,12 +14482,12 @@
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr">
         <is>
-          <t>BlkHcvD</t>
+          <t>AvNhPiHcvD</t>
         </is>
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black</t>
+          <t>Mean yearly Hepatitis C deaths among Native Hawaiian and Pacific Islanders population from 2018-2022</t>
         </is>
       </c>
       <c r="X185" t="inlineStr"/>
@@ -14513,51 +14525,19 @@
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr">
         <is>
           <t>x</t>
@@ -14570,12 +14550,12 @@
       <c r="U186" t="inlineStr"/>
       <c r="V186" t="inlineStr">
         <is>
-          <t>FlHcvD</t>
+          <t>AvO75HcvD</t>
         </is>
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women</t>
+          <t>Hepatitis C Deaths - Age Over 75  (5-Year Averages)</t>
         </is>
       </c>
       <c r="X186" t="inlineStr"/>
@@ -14626,7 +14606,11 @@
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="inlineStr"/>
       <c r="S187" t="inlineStr"/>
@@ -14634,12 +14618,12 @@
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr">
         <is>
-          <t>FmHcv</t>
+          <t>AvU50HcvD</t>
         </is>
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Women (2013-2016)</t>
+          <t>Hepatitis C Deaths - Age Under 50 (5-Year Averages)</t>
         </is>
       </c>
       <c r="X187" t="inlineStr"/>
@@ -14677,51 +14661,15 @@
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr">
         <is>
           <t>x</t>
@@ -14734,12 +14682,12 @@
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr">
         <is>
-          <t>HcvD</t>
+          <t>AvWhHcvD</t>
         </is>
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths</t>
+          <t>Average White Hepitatis C virus Deaths</t>
         </is>
       </c>
       <c r="X188" t="inlineStr"/>
@@ -14777,56 +14725,20 @@
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
@@ -14834,12 +14746,12 @@
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr">
         <is>
-          <t>HspHcvD</t>
+          <t>BlkHcv</t>
         </is>
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic</t>
+          <t>Yearly Hepatitis C cases - Black (2013-2016)</t>
         </is>
       </c>
       <c r="X189" t="inlineStr"/>
@@ -14877,20 +14789,56 @@
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="inlineStr"/>
@@ -14898,12 +14846,12 @@
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr">
         <is>
-          <t>MlHcv</t>
+          <t>BlkHcvD</t>
         </is>
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Men (2013-2016)</t>
+          <t>Hepatitis C Deaths - Black</t>
         </is>
       </c>
       <c r="X190" t="inlineStr"/>
@@ -14998,12 +14946,12 @@
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr">
         <is>
-          <t>MlHcvD</t>
+          <t>FlHcvD</t>
         </is>
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men</t>
+          <t>Hepatitis C Deaths - Women</t>
         </is>
       </c>
       <c r="X191" t="inlineStr"/>
@@ -15045,32 +14993,16 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
@@ -15078,12 +15010,12 @@
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr">
         <is>
-          <t>MulHcvD</t>
+          <t>FmHcv</t>
         </is>
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hepatitis C deaths among Multiple Race populations </t>
+          <t>Yearly Hepatitis C cases - Women (2013-2016)</t>
         </is>
       </c>
       <c r="X192" t="inlineStr"/>
@@ -15121,11 +15053,31 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>x</t>
@@ -15158,12 +15110,12 @@
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr">
         <is>
-          <t>NhPiHcvD</t>
+          <t>HcvD</t>
         </is>
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hepatitis C deaths among Native Hawaiian and Pacific Islander populations </t>
+          <t>Hepatitis C Deaths</t>
         </is>
       </c>
       <c r="X193" t="inlineStr"/>
@@ -15201,20 +15153,56 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr"/>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="inlineStr"/>
       <c r="S194" t="inlineStr"/>
@@ -15222,12 +15210,12 @@
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr">
         <is>
-          <t>NonBlkHcv</t>
+          <t>HspHcvD</t>
         </is>
       </c>
       <c r="W194" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - non-Black (2013-2016)</t>
+          <t>Hepatitis C Deaths - Hispanic</t>
         </is>
       </c>
       <c r="X194" t="inlineStr"/>
@@ -15265,56 +15253,20 @@
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
@@ -15322,12 +15274,12 @@
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr">
         <is>
-          <t>O75HcvD</t>
+          <t>MlHcv</t>
         </is>
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Over 75 years old</t>
+          <t>Yearly Hepatitis C cases - Men (2013-2016)</t>
         </is>
       </c>
       <c r="X195" t="inlineStr"/>
@@ -15365,20 +15317,56 @@
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
@@ -15386,12 +15374,12 @@
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr">
         <is>
-          <t>Ov75Hcv</t>
+          <t>MlHcvD</t>
         </is>
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Over 75 years old (2013-2016)</t>
+          <t>Hepatitis C Deaths - Men</t>
         </is>
       </c>
       <c r="X196" t="inlineStr"/>
@@ -15433,16 +15421,32 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="inlineStr"/>
@@ -15450,12 +15454,12 @@
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr">
         <is>
-          <t>TotHcv</t>
+          <t>MulHcvD</t>
         </is>
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases (2013-2016)</t>
+          <t xml:space="preserve">Hepatitis C deaths among Multiple Race populations </t>
         </is>
       </c>
       <c r="X197" t="inlineStr"/>
@@ -15493,31 +15497,11 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>x</t>
@@ -15550,12 +15534,12 @@
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="inlineStr">
         <is>
-          <t>U50HcvD</t>
+          <t>NhPiHcvD</t>
         </is>
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Under 50 years old</t>
+          <t xml:space="preserve">Hepatitis C deaths among Native Hawaiian and Pacific Islander populations </t>
         </is>
       </c>
       <c r="X198" t="inlineStr"/>
@@ -15614,12 +15598,12 @@
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr">
         <is>
-          <t>Un50Hcv</t>
+          <t>NonBlkHcv</t>
         </is>
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Under 50 years old (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - non-Black (2013-2016)</t>
         </is>
       </c>
       <c r="X199" t="inlineStr"/>
@@ -15657,11 +15641,31 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>x</t>
@@ -15694,12 +15698,12 @@
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr">
         <is>
-          <t>WhtHcvD</t>
+          <t>O75HcvD</t>
         </is>
       </c>
       <c r="W200" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among White populations</t>
+          <t>Hepatitis C Deaths - Over 75 years old</t>
         </is>
       </c>
       <c r="X200" t="inlineStr"/>
@@ -15730,7 +15734,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Opioid Indicators</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -15738,51 +15742,19 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M201" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O201" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P201" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
       <c r="Q201" t="inlineStr"/>
       <c r="R201" t="inlineStr"/>
       <c r="S201" t="inlineStr"/>
@@ -15790,28 +15762,28 @@
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr">
         <is>
-          <t>OdMortRt</t>
+          <t>Ov75Hcv</t>
         </is>
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>Overdose Mortality Rate</t>
+          <t>Yearly Hepatitis C cases - Over 75 years old (2013-2016)</t>
         </is>
       </c>
       <c r="X201" t="inlineStr"/>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>HepVu 2014-2022</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA201" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB201" t="inlineStr"/>
@@ -15826,7 +15798,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Opioid Indicators</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -15837,14 +15809,14 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
       <c r="Q202" t="inlineStr"/>
@@ -15854,28 +15826,28 @@
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr">
         <is>
-          <t>OdMortRtAv</t>
+          <t>TotHcv</t>
         </is>
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>Overdose Mortality Rate Average (2016-2020)</t>
+          <t>Yearly Hepatitis C cases (2013-2016)</t>
         </is>
       </c>
       <c r="X202" t="inlineStr"/>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z202" t="inlineStr">
         <is>
-          <t>HepVu 2014-2022</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA202" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB202" t="inlineStr"/>
@@ -15890,26 +15862,58 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Opioid Indicators</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N203" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O203" t="inlineStr"/>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P203" t="inlineStr">
         <is>
           <t>x</t>
@@ -15922,28 +15926,28 @@
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr">
         <is>
-          <t>OpRxRt</t>
+          <t>U50HcvD</t>
         </is>
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>Opioid Prescription Rate</t>
+          <t>Hepatitis C Deaths - Under 50 years old</t>
         </is>
       </c>
       <c r="X203" t="inlineStr"/>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z203" t="inlineStr">
         <is>
-          <t>HepVu 2014-2022</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA203" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB203" t="inlineStr"/>
@@ -15958,7 +15962,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Opioid Indicators</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -15969,20 +15973,16 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P204" t="inlineStr"/>
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr"/>
       <c r="S204" t="inlineStr"/>
@@ -15990,33 +15990,409 @@
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr">
         <is>
-          <t>PrMsuseP</t>
+          <t>Un50Hcv</t>
         </is>
       </c>
       <c r="W204" t="inlineStr">
         <is>
-          <t>% Self-Report Misuse of Prescription Pain Medication (2020)</t>
+          <t>Yearly Hepatitis C cases - Under 50 years old (2013-2016)</t>
         </is>
       </c>
       <c r="X204" t="inlineStr"/>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
       <c r="Z204" t="inlineStr">
         <is>
-          <t>HepVu 2014-2022</t>
+          <t>HepVu 2013-2016, 2018-2022</t>
         </is>
       </c>
       <c r="AA204" t="inlineStr">
         <is>
-          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
         </is>
       </c>
       <c r="AB204" t="inlineStr"/>
       <c r="AC204" t="inlineStr"/>
       <c r="AD204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Hepatitis C Rates</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>WhtHcvD</t>
+        </is>
+      </c>
+      <c r="W205" t="inlineStr">
+        <is>
+          <t>Hepatitis C deaths among White populations</t>
+        </is>
+      </c>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+        </is>
+      </c>
+      <c r="Z205" t="inlineStr">
+        <is>
+          <t>HepVu 2013-2016, 2018-2022</t>
+        </is>
+      </c>
+      <c r="AA205" t="inlineStr">
+        <is>
+          <t>HepVu, Emory University Rollins School of Public Health, 2013-2016 &amp; 2018-2022</t>
+        </is>
+      </c>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Opioid Indicators</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>OdMortRt</t>
+        </is>
+      </c>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>Overdose Mortality Rate</t>
+        </is>
+      </c>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+        </is>
+      </c>
+      <c r="Z206" t="inlineStr">
+        <is>
+          <t>HepVu 2014-2022</t>
+        </is>
+      </c>
+      <c r="AA206" t="inlineStr">
+        <is>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+        </is>
+      </c>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Opioid Indicators</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>OdMortRtAv</t>
+        </is>
+      </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>Overdose Mortality Rate Average (2016-2020)</t>
+        </is>
+      </c>
+      <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+        </is>
+      </c>
+      <c r="Z207" t="inlineStr">
+        <is>
+          <t>HepVu 2014-2022</t>
+        </is>
+      </c>
+      <c r="AA207" t="inlineStr">
+        <is>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+        </is>
+      </c>
+      <c r="AB207" t="inlineStr"/>
+      <c r="AC207" t="inlineStr"/>
+      <c r="AD207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Opioid Indicators</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>OpRxRt</t>
+        </is>
+      </c>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t>Opioid Prescription Rate</t>
+        </is>
+      </c>
+      <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+        </is>
+      </c>
+      <c r="Z208" t="inlineStr">
+        <is>
+          <t>HepVu 2014-2022</t>
+        </is>
+      </c>
+      <c r="AA208" t="inlineStr">
+        <is>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+        </is>
+      </c>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Opioid Indicators</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>PrMsuseP</t>
+        </is>
+      </c>
+      <c r="W209" t="inlineStr">
+        <is>
+          <t>% Self-Report Misuse of Prescription Pain Medication (2020)</t>
+        </is>
+      </c>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+        </is>
+      </c>
+      <c r="Z209" t="inlineStr">
+        <is>
+          <t>HepVu 2014-2022</t>
+        </is>
+      </c>
+      <c r="AA209" t="inlineStr">
+        <is>
+          <t>HepVu, Emory University Rollins School of Public Health, 2014-2022</t>
+        </is>
+      </c>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr"/>
+      <c r="AD209" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
